--- a/Normals.xlsx
+++ b/Normals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Desktop\Visualization\YHM Reports\YHM 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51953CF7-89A9-45FF-AFBF-64B70A3DF9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38833A2A-F937-4A0D-BB92-E9B1EC922EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="5208" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="125">
   <si>
     <t>date</t>
   </si>
@@ -179,6 +179,27 @@
   </si>
   <si>
     <t>solar_radiation_d</t>
+  </si>
+  <si>
+    <t>1994-02-22 2023-03-08</t>
+  </si>
+  <si>
+    <t>1994-02-21 2023-03-07</t>
+  </si>
+  <si>
+    <t>1994-02-20 2023-03-06</t>
+  </si>
+  <si>
+    <t>1994-02-19 2023-03-05</t>
+  </si>
+  <si>
+    <t>1994-02-18 2023-03-04</t>
+  </si>
+  <si>
+    <t>1994-02-17 2023-03-03</t>
+  </si>
+  <si>
+    <t>1994-02-16 2023-03-02</t>
   </si>
   <si>
     <t>1994-02-15 2023-03-01</t>
@@ -382,14 +403,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -427,28 +448,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -456,7 +477,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -464,14 +485,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -479,14 +500,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -494,7 +515,7 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -502,14 +523,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1215,18 +1236,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA54"/>
+  <dimension ref="A1:BA62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.73046875" customWidth="1"/>
+    <col min="1" max="1" width="15.5625" customWidth="1"/>
+    <col min="10" max="10" width="33.125" customWidth="1"/>
+    <col min="11" max="11" width="7.0625" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="23.9375" customWidth="1"/>
+    <col min="26" max="26" width="26.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1387,7 +1414,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
         <v>45292</v>
       </c>
@@ -1401,7 +1428,7 @@
         <v>450</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F2">
         <v>91.98</v>
@@ -1413,7 +1440,7 @@
         <v>450</v>
       </c>
       <c r="I2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J2">
         <v>-0.15</v>
@@ -1425,7 +1452,7 @@
         <v>450</v>
       </c>
       <c r="M2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="N2">
         <v>31.4</v>
@@ -1437,7 +1464,7 @@
         <v>450</v>
       </c>
       <c r="Q2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="R2">
         <v>-9.39</v>
@@ -1449,7 +1476,7 @@
         <v>450</v>
       </c>
       <c r="U2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="V2">
         <v>69.98</v>
@@ -1461,7 +1488,7 @@
         <v>450</v>
       </c>
       <c r="Y2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="Z2">
         <v>-7.15</v>
@@ -1473,7 +1500,7 @@
         <v>450</v>
       </c>
       <c r="AC2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AD2">
         <v>7.75</v>
@@ -1485,7 +1512,7 @@
         <v>450</v>
       </c>
       <c r="AG2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AH2">
         <v>2.2000000000000002</v>
@@ -1497,7 +1524,7 @@
         <v>449</v>
       </c>
       <c r="AK2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AL2">
         <v>1.25</v>
@@ -1509,7 +1536,7 @@
         <v>445</v>
       </c>
       <c r="AO2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AP2">
         <v>1.07</v>
@@ -1521,7 +1548,7 @@
         <v>447</v>
       </c>
       <c r="AS2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AT2">
         <v>6.8</v>
@@ -1533,10 +1560,10 @@
         <v>406</v>
       </c>
       <c r="AW2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
         <v>45293</v>
       </c>
@@ -1550,7 +1577,7 @@
         <v>450</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F3">
         <v>91.99</v>
@@ -1562,7 +1589,7 @@
         <v>450</v>
       </c>
       <c r="I3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="J3">
         <v>-0.15</v>
@@ -1574,7 +1601,7 @@
         <v>450</v>
       </c>
       <c r="M3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="N3">
         <v>31.46</v>
@@ -1586,7 +1613,7 @@
         <v>450</v>
       </c>
       <c r="Q3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="R3">
         <v>-9.57</v>
@@ -1598,7 +1625,7 @@
         <v>450</v>
       </c>
       <c r="U3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="V3">
         <v>69.58</v>
@@ -1610,7 +1637,7 @@
         <v>450</v>
       </c>
       <c r="Y3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="Z3">
         <v>-7.31</v>
@@ -1622,7 +1649,7 @@
         <v>450</v>
       </c>
       <c r="AC3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AD3">
         <v>7.7</v>
@@ -1634,7 +1661,7 @@
         <v>450</v>
       </c>
       <c r="AG3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AH3">
         <v>2.14</v>
@@ -1646,7 +1673,7 @@
         <v>449</v>
       </c>
       <c r="AK3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AL3">
         <v>1.21</v>
@@ -1658,7 +1685,7 @@
         <v>445</v>
       </c>
       <c r="AO3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AP3">
         <v>1.05</v>
@@ -1670,7 +1697,7 @@
         <v>447</v>
       </c>
       <c r="AS3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AT3">
         <v>7.1</v>
@@ -1682,10 +1709,10 @@
         <v>408</v>
       </c>
       <c r="AW3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>45294</v>
       </c>
@@ -1699,7 +1726,7 @@
         <v>450</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F4">
         <v>91.91</v>
@@ -1711,7 +1738,7 @@
         <v>450</v>
       </c>
       <c r="I4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="J4">
         <v>-0.16</v>
@@ -1723,7 +1750,7 @@
         <v>450</v>
       </c>
       <c r="M4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="N4">
         <v>31.61</v>
@@ -1735,7 +1762,7 @@
         <v>450</v>
       </c>
       <c r="Q4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="R4">
         <v>-9.74</v>
@@ -1747,7 +1774,7 @@
         <v>450</v>
       </c>
       <c r="U4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="V4">
         <v>69.319999999999993</v>
@@ -1759,7 +1786,7 @@
         <v>450</v>
       </c>
       <c r="Y4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Z4">
         <v>-7.48</v>
@@ -1771,7 +1798,7 @@
         <v>450</v>
       </c>
       <c r="AC4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AD4">
         <v>7.55</v>
@@ -1783,7 +1810,7 @@
         <v>450</v>
       </c>
       <c r="AG4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AH4">
         <v>2.17</v>
@@ -1795,7 +1822,7 @@
         <v>449</v>
       </c>
       <c r="AK4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AL4">
         <v>1.27</v>
@@ -1807,7 +1834,7 @@
         <v>444</v>
       </c>
       <c r="AO4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AP4">
         <v>1.02</v>
@@ -1819,7 +1846,7 @@
         <v>446</v>
       </c>
       <c r="AS4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AT4">
         <v>7.3</v>
@@ -1831,10 +1858,10 @@
         <v>410</v>
       </c>
       <c r="AW4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>45295</v>
       </c>
@@ -1848,7 +1875,7 @@
         <v>450</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F5">
         <v>91.97</v>
@@ -1860,7 +1887,7 @@
         <v>450</v>
       </c>
       <c r="I5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="J5">
         <v>-0.17</v>
@@ -1872,7 +1899,7 @@
         <v>450</v>
       </c>
       <c r="M5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="N5">
         <v>32.04</v>
@@ -1884,7 +1911,7 @@
         <v>450</v>
       </c>
       <c r="Q5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="R5">
         <v>-9.7899999999999991</v>
@@ -1896,7 +1923,7 @@
         <v>450</v>
       </c>
       <c r="U5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="V5">
         <v>69.22</v>
@@ -1908,7 +1935,7 @@
         <v>450</v>
       </c>
       <c r="Y5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Z5">
         <v>-7.48</v>
@@ -1920,7 +1947,7 @@
         <v>450</v>
       </c>
       <c r="AC5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AD5">
         <v>7.62</v>
@@ -1932,7 +1959,7 @@
         <v>450</v>
       </c>
       <c r="AG5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AH5">
         <v>2.31</v>
@@ -1944,7 +1971,7 @@
         <v>449</v>
       </c>
       <c r="AK5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AL5">
         <v>1.37</v>
@@ -1956,7 +1983,7 @@
         <v>443</v>
       </c>
       <c r="AO5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AP5">
         <v>1.07</v>
@@ -1968,7 +1995,7 @@
         <v>445</v>
       </c>
       <c r="AS5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AT5">
         <v>7.4</v>
@@ -1980,10 +2007,10 @@
         <v>410</v>
       </c>
       <c r="AW5" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>45296</v>
       </c>
@@ -1997,7 +2024,7 @@
         <v>450</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F6">
         <v>92.05</v>
@@ -2009,7 +2036,7 @@
         <v>450</v>
       </c>
       <c r="I6" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="J6">
         <v>-0.12</v>
@@ -2021,7 +2048,7 @@
         <v>450</v>
       </c>
       <c r="M6" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="N6">
         <v>32.130000000000003</v>
@@ -2033,7 +2060,7 @@
         <v>450</v>
       </c>
       <c r="Q6" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="R6">
         <v>-9.7100000000000009</v>
@@ -2045,7 +2072,7 @@
         <v>450</v>
       </c>
       <c r="U6" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="V6">
         <v>69.59</v>
@@ -2057,7 +2084,7 @@
         <v>450</v>
       </c>
       <c r="Y6" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Z6">
         <v>-7.42</v>
@@ -2069,7 +2096,7 @@
         <v>450</v>
       </c>
       <c r="AC6" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="AD6">
         <v>7.56</v>
@@ -2081,7 +2108,7 @@
         <v>450</v>
       </c>
       <c r="AG6" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="AH6">
         <v>2.4300000000000002</v>
@@ -2093,7 +2120,7 @@
         <v>449</v>
       </c>
       <c r="AK6" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="AL6">
         <v>1.44</v>
@@ -2105,7 +2132,7 @@
         <v>442</v>
       </c>
       <c r="AO6" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="AP6">
         <v>1.1299999999999999</v>
@@ -2117,7 +2144,7 @@
         <v>444</v>
       </c>
       <c r="AS6" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="AT6">
         <v>7.7</v>
@@ -2129,10 +2156,10 @@
         <v>410</v>
       </c>
       <c r="AW6" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>45297</v>
       </c>
@@ -2146,7 +2173,7 @@
         <v>450</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F7">
         <v>92.18</v>
@@ -2158,7 +2185,7 @@
         <v>450</v>
       </c>
       <c r="I7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="J7">
         <v>-0.11</v>
@@ -2170,7 +2197,7 @@
         <v>450</v>
       </c>
       <c r="M7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="N7">
         <v>32.229999999999997</v>
@@ -2182,7 +2209,7 @@
         <v>450</v>
       </c>
       <c r="Q7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="R7">
         <v>-9.85</v>
@@ -2194,7 +2221,7 @@
         <v>450</v>
       </c>
       <c r="U7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="V7">
         <v>69.47</v>
@@ -2206,7 +2233,7 @@
         <v>450</v>
       </c>
       <c r="Y7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Z7">
         <v>-7.56</v>
@@ -2218,7 +2245,7 @@
         <v>450</v>
       </c>
       <c r="AC7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="AD7">
         <v>7.69</v>
@@ -2230,7 +2257,7 @@
         <v>450</v>
       </c>
       <c r="AG7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="AH7">
         <v>2.52</v>
@@ -2242,7 +2269,7 @@
         <v>449</v>
       </c>
       <c r="AK7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="AL7">
         <v>1.37</v>
@@ -2254,7 +2281,7 @@
         <v>442</v>
       </c>
       <c r="AO7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="AP7">
         <v>1.2</v>
@@ -2266,7 +2293,7 @@
         <v>444</v>
       </c>
       <c r="AS7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="AT7">
         <v>8</v>
@@ -2278,10 +2305,10 @@
         <v>410</v>
       </c>
       <c r="AW7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>45298</v>
       </c>
@@ -2295,7 +2322,7 @@
         <v>450</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F8">
         <v>92.2</v>
@@ -2307,7 +2334,7 @@
         <v>450</v>
       </c>
       <c r="I8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="J8">
         <v>-0.25</v>
@@ -2319,7 +2346,7 @@
         <v>450</v>
       </c>
       <c r="M8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="N8">
         <v>31.96</v>
@@ -2331,7 +2358,7 @@
         <v>450</v>
       </c>
       <c r="Q8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="R8">
         <v>-10.1</v>
@@ -2343,7 +2370,7 @@
         <v>450</v>
       </c>
       <c r="U8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="V8">
         <v>69.36</v>
@@ -2355,7 +2382,7 @@
         <v>450</v>
       </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Z8">
         <v>-7.85</v>
@@ -2367,7 +2394,7 @@
         <v>450</v>
       </c>
       <c r="AC8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="AD8">
         <v>7.56</v>
@@ -2379,7 +2406,7 @@
         <v>450</v>
       </c>
       <c r="AG8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="AH8">
         <v>2.4700000000000002</v>
@@ -2391,7 +2418,7 @@
         <v>449</v>
       </c>
       <c r="AK8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="AL8">
         <v>1.31</v>
@@ -2403,7 +2430,7 @@
         <v>443</v>
       </c>
       <c r="AO8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="AP8">
         <v>1.22</v>
@@ -2415,7 +2442,7 @@
         <v>445</v>
       </c>
       <c r="AS8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="AT8">
         <v>8.1999999999999993</v>
@@ -2427,10 +2454,10 @@
         <v>413</v>
       </c>
       <c r="AW8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>45299</v>
       </c>
@@ -2444,7 +2471,7 @@
         <v>450</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F9">
         <v>92.07</v>
@@ -2456,7 +2483,7 @@
         <v>450</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="J9">
         <v>-0.5</v>
@@ -2468,7 +2495,7 @@
         <v>450</v>
       </c>
       <c r="M9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="N9">
         <v>31.7</v>
@@ -2480,7 +2507,7 @@
         <v>450</v>
       </c>
       <c r="Q9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="R9">
         <v>-10.39</v>
@@ -2492,7 +2519,7 @@
         <v>450</v>
       </c>
       <c r="U9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="V9">
         <v>69.08</v>
@@ -2504,7 +2531,7 @@
         <v>450</v>
       </c>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Z9">
         <v>-8.1199999999999992</v>
@@ -2516,7 +2543,7 @@
         <v>450</v>
       </c>
       <c r="AC9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AD9">
         <v>7.41</v>
@@ -2528,7 +2555,7 @@
         <v>450</v>
       </c>
       <c r="AG9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AH9">
         <v>2.5099999999999998</v>
@@ -2540,7 +2567,7 @@
         <v>449</v>
       </c>
       <c r="AK9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AL9">
         <v>1.34</v>
@@ -2552,7 +2579,7 @@
         <v>443</v>
       </c>
       <c r="AO9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AP9">
         <v>1.22</v>
@@ -2564,7 +2591,7 @@
         <v>445</v>
       </c>
       <c r="AS9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AT9">
         <v>8.5</v>
@@ -2576,10 +2603,10 @@
         <v>416</v>
       </c>
       <c r="AW9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>45300</v>
       </c>
@@ -2593,7 +2620,7 @@
         <v>450</v>
       </c>
       <c r="E10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F10">
         <v>91.95</v>
@@ -2605,7 +2632,7 @@
         <v>450</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J10">
         <v>-0.68</v>
@@ -2617,7 +2644,7 @@
         <v>450</v>
       </c>
       <c r="M10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="N10">
         <v>31.58</v>
@@ -2629,7 +2656,7 @@
         <v>450</v>
       </c>
       <c r="Q10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="R10">
         <v>-10.61</v>
@@ -2641,7 +2668,7 @@
         <v>450</v>
       </c>
       <c r="U10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="V10">
         <v>68.959999999999994</v>
@@ -2653,7 +2680,7 @@
         <v>450</v>
       </c>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Z10">
         <v>-8.36</v>
@@ -2665,7 +2692,7 @@
         <v>450</v>
       </c>
       <c r="AC10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AD10">
         <v>7.45</v>
@@ -2677,7 +2704,7 @@
         <v>450</v>
       </c>
       <c r="AG10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AH10">
         <v>2.5299999999999998</v>
@@ -2689,7 +2716,7 @@
         <v>449</v>
       </c>
       <c r="AK10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AL10">
         <v>1.39</v>
@@ -2701,7 +2728,7 @@
         <v>442</v>
       </c>
       <c r="AO10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AP10">
         <v>1.21</v>
@@ -2713,7 +2740,7 @@
         <v>444</v>
       </c>
       <c r="AS10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AT10">
         <v>8.8000000000000007</v>
@@ -2725,10 +2752,10 @@
         <v>417</v>
       </c>
       <c r="AW10" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>45301</v>
       </c>
@@ -2742,7 +2769,7 @@
         <v>450</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F11">
         <v>92.07</v>
@@ -2754,7 +2781,7 @@
         <v>450</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J11">
         <v>-0.75</v>
@@ -2766,7 +2793,7 @@
         <v>450</v>
       </c>
       <c r="M11" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="N11">
         <v>31.45</v>
@@ -2778,7 +2805,7 @@
         <v>450</v>
       </c>
       <c r="Q11" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="R11">
         <v>-10.74</v>
@@ -2790,7 +2817,7 @@
         <v>450</v>
       </c>
       <c r="U11" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="V11">
         <v>68.92</v>
@@ -2802,7 +2829,7 @@
         <v>450</v>
       </c>
       <c r="Y11" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Z11">
         <v>-8.48</v>
@@ -2814,7 +2841,7 @@
         <v>450</v>
       </c>
       <c r="AC11" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AD11">
         <v>7.16</v>
@@ -2826,7 +2853,7 @@
         <v>450</v>
       </c>
       <c r="AG11" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AH11">
         <v>2.52</v>
@@ -2838,7 +2865,7 @@
         <v>449</v>
       </c>
       <c r="AK11" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AL11">
         <v>1.37</v>
@@ -2850,7 +2877,7 @@
         <v>442</v>
       </c>
       <c r="AO11" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AP11">
         <v>1.23</v>
@@ -2862,7 +2889,7 @@
         <v>443</v>
       </c>
       <c r="AS11" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AT11">
         <v>9.1999999999999993</v>
@@ -2874,10 +2901,10 @@
         <v>417</v>
       </c>
       <c r="AW11" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>45302</v>
       </c>
@@ -2891,7 +2918,7 @@
         <v>450</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F12">
         <v>91.93</v>
@@ -2903,7 +2930,7 @@
         <v>450</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J12">
         <v>-0.82</v>
@@ -2915,7 +2942,7 @@
         <v>450</v>
       </c>
       <c r="M12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="N12">
         <v>31.42</v>
@@ -2927,7 +2954,7 @@
         <v>450</v>
       </c>
       <c r="Q12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="R12">
         <v>-10.87</v>
@@ -2939,7 +2966,7 @@
         <v>450</v>
       </c>
       <c r="U12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="V12">
         <v>68.66</v>
@@ -2951,7 +2978,7 @@
         <v>450</v>
       </c>
       <c r="Y12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="Z12">
         <v>-8.58</v>
@@ -2963,7 +2990,7 @@
         <v>450</v>
       </c>
       <c r="AC12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="AD12">
         <v>7.21</v>
@@ -2975,7 +3002,7 @@
         <v>450</v>
       </c>
       <c r="AG12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="AH12">
         <v>2.44</v>
@@ -2987,7 +3014,7 @@
         <v>449</v>
       </c>
       <c r="AK12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="AL12">
         <v>1.32</v>
@@ -2999,7 +3026,7 @@
         <v>441</v>
       </c>
       <c r="AO12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="AP12">
         <v>1.2</v>
@@ -3011,7 +3038,7 @@
         <v>442</v>
       </c>
       <c r="AS12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="AT12">
         <v>9.4</v>
@@ -3023,10 +3050,10 @@
         <v>418</v>
       </c>
       <c r="AW12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A13" s="1">
         <v>45303</v>
       </c>
@@ -3040,7 +3067,7 @@
         <v>450</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F13">
         <v>91.93</v>
@@ -3052,7 +3079,7 @@
         <v>450</v>
       </c>
       <c r="I13" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J13">
         <v>-0.9</v>
@@ -3064,7 +3091,7 @@
         <v>450</v>
       </c>
       <c r="M13" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="N13">
         <v>31.46</v>
@@ -3076,7 +3103,7 @@
         <v>450</v>
       </c>
       <c r="Q13" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="R13">
         <v>-11.02</v>
@@ -3088,7 +3115,7 @@
         <v>450</v>
       </c>
       <c r="U13" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="V13">
         <v>68.599999999999994</v>
@@ -3100,7 +3127,7 @@
         <v>450</v>
       </c>
       <c r="Y13" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Z13">
         <v>-8.75</v>
@@ -3112,7 +3139,7 @@
         <v>450</v>
       </c>
       <c r="AC13" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AD13">
         <v>7.22</v>
@@ -3124,7 +3151,7 @@
         <v>450</v>
       </c>
       <c r="AG13" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AH13">
         <v>2.42</v>
@@ -3136,7 +3163,7 @@
         <v>449</v>
       </c>
       <c r="AK13" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AL13">
         <v>1.26</v>
@@ -3148,7 +3175,7 @@
         <v>440</v>
       </c>
       <c r="AO13" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AP13">
         <v>1.24</v>
@@ -3160,7 +3187,7 @@
         <v>441</v>
       </c>
       <c r="AS13" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AT13">
         <v>9.6</v>
@@ -3172,10 +3199,10 @@
         <v>417</v>
       </c>
       <c r="AW13" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A14" s="1">
         <v>45304</v>
       </c>
@@ -3189,7 +3216,7 @@
         <v>450</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F14">
         <v>91.71</v>
@@ -3201,7 +3228,7 @@
         <v>450</v>
       </c>
       <c r="I14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J14">
         <v>-1.1200000000000001</v>
@@ -3213,7 +3240,7 @@
         <v>450</v>
       </c>
       <c r="M14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="N14">
         <v>31.32</v>
@@ -3225,7 +3252,7 @@
         <v>450</v>
       </c>
       <c r="Q14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="R14">
         <v>-11.33</v>
@@ -3237,7 +3264,7 @@
         <v>450</v>
       </c>
       <c r="U14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="V14">
         <v>68.099999999999994</v>
@@ -3249,7 +3276,7 @@
         <v>450</v>
       </c>
       <c r="Y14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="Z14">
         <v>-9.06</v>
@@ -3261,7 +3288,7 @@
         <v>450</v>
       </c>
       <c r="AC14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AD14">
         <v>7.1</v>
@@ -3273,7 +3300,7 @@
         <v>450</v>
       </c>
       <c r="AG14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AH14">
         <v>2.36</v>
@@ -3285,7 +3312,7 @@
         <v>449</v>
       </c>
       <c r="AK14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AL14">
         <v>1.24</v>
@@ -3297,7 +3324,7 @@
         <v>438</v>
       </c>
       <c r="AO14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AP14">
         <v>1.21</v>
@@ -3309,7 +3336,7 @@
         <v>439</v>
       </c>
       <c r="AS14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AT14">
         <v>9.8000000000000007</v>
@@ -3321,10 +3348,10 @@
         <v>416</v>
       </c>
       <c r="AW14" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A15" s="1">
         <v>45305</v>
       </c>
@@ -3338,7 +3365,7 @@
         <v>450</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F15">
         <v>91.52</v>
@@ -3350,7 +3377,7 @@
         <v>450</v>
       </c>
       <c r="I15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J15">
         <v>-1.32</v>
@@ -3362,7 +3389,7 @@
         <v>450</v>
       </c>
       <c r="M15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N15">
         <v>30.95</v>
@@ -3374,7 +3401,7 @@
         <v>450</v>
       </c>
       <c r="Q15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R15">
         <v>-11.58</v>
@@ -3386,7 +3413,7 @@
         <v>450</v>
       </c>
       <c r="U15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="V15">
         <v>67.69</v>
@@ -3398,7 +3425,7 @@
         <v>450</v>
       </c>
       <c r="Y15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Z15">
         <v>-9.32</v>
@@ -3410,7 +3437,7 @@
         <v>450</v>
       </c>
       <c r="AC15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AD15">
         <v>6.84</v>
@@ -3422,7 +3449,7 @@
         <v>450</v>
       </c>
       <c r="AG15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AH15">
         <v>2.2799999999999998</v>
@@ -3434,7 +3461,7 @@
         <v>449</v>
       </c>
       <c r="AK15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AL15">
         <v>1.24</v>
@@ -3446,7 +3473,7 @@
         <v>438</v>
       </c>
       <c r="AO15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AP15">
         <v>1.1100000000000001</v>
@@ -3458,7 +3485,7 @@
         <v>439</v>
       </c>
       <c r="AS15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AT15">
         <v>10</v>
@@ -3470,10 +3497,10 @@
         <v>416</v>
       </c>
       <c r="AW15" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A16" s="1">
         <v>45306</v>
       </c>
@@ -3487,7 +3514,7 @@
         <v>450</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F16">
         <v>91.39</v>
@@ -3499,7 +3526,7 @@
         <v>450</v>
       </c>
       <c r="I16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J16">
         <v>-1.36</v>
@@ -3511,7 +3538,7 @@
         <v>450</v>
       </c>
       <c r="M16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="N16">
         <v>30.81</v>
@@ -3523,7 +3550,7 @@
         <v>450</v>
       </c>
       <c r="Q16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="R16">
         <v>-11.58</v>
@@ -3535,7 +3562,7 @@
         <v>450</v>
       </c>
       <c r="U16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="V16">
         <v>67.739999999999995</v>
@@ -3547,7 +3574,7 @@
         <v>450</v>
       </c>
       <c r="Y16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Z16">
         <v>-9.33</v>
@@ -3559,7 +3586,7 @@
         <v>450</v>
       </c>
       <c r="AC16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AD16">
         <v>6.91</v>
@@ -3571,7 +3598,7 @@
         <v>450</v>
       </c>
       <c r="AG16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AH16">
         <v>2.2999999999999998</v>
@@ -3583,7 +3610,7 @@
         <v>449</v>
       </c>
       <c r="AK16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AL16">
         <v>1.24</v>
@@ -3595,7 +3622,7 @@
         <v>439</v>
       </c>
       <c r="AO16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AP16">
         <v>1.08</v>
@@ -3607,7 +3634,7 @@
         <v>440</v>
       </c>
       <c r="AS16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AT16">
         <v>10.1</v>
@@ -3619,10 +3646,10 @@
         <v>418</v>
       </c>
       <c r="AW16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
         <v>45307</v>
       </c>
@@ -3636,7 +3663,7 @@
         <v>450</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F17">
         <v>91.39</v>
@@ -3648,7 +3675,7 @@
         <v>450</v>
       </c>
       <c r="I17" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J17">
         <v>-1.36</v>
@@ -3660,7 +3687,7 @@
         <v>450</v>
       </c>
       <c r="M17" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="N17">
         <v>30.79</v>
@@ -3672,7 +3699,7 @@
         <v>450</v>
       </c>
       <c r="Q17" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="R17">
         <v>-11.6</v>
@@ -3684,7 +3711,7 @@
         <v>450</v>
       </c>
       <c r="U17" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="V17">
         <v>67.73</v>
@@ -3696,7 +3723,7 @@
         <v>450</v>
       </c>
       <c r="Y17" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="Z17">
         <v>-9.3000000000000007</v>
@@ -3708,7 +3735,7 @@
         <v>450</v>
       </c>
       <c r="AC17" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AD17">
         <v>6.91</v>
@@ -3720,7 +3747,7 @@
         <v>450</v>
       </c>
       <c r="AG17" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AH17">
         <v>2.3199999999999998</v>
@@ -3732,7 +3759,7 @@
         <v>450</v>
       </c>
       <c r="AK17" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AL17">
         <v>1.27</v>
@@ -3744,7 +3771,7 @@
         <v>439</v>
       </c>
       <c r="AO17" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AP17">
         <v>1.08</v>
@@ -3756,7 +3783,7 @@
         <v>439</v>
       </c>
       <c r="AS17" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AT17">
         <v>10.199999999999999</v>
@@ -3768,10 +3795,10 @@
         <v>419</v>
       </c>
       <c r="AW17" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A18" s="1">
         <v>45308</v>
       </c>
@@ -3785,7 +3812,7 @@
         <v>450</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F18">
         <v>91.35</v>
@@ -3797,7 +3824,7 @@
         <v>450</v>
       </c>
       <c r="I18" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J18">
         <v>-1.47</v>
@@ -3809,7 +3836,7 @@
         <v>450</v>
       </c>
       <c r="M18" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="N18">
         <v>30.74</v>
@@ -3821,7 +3848,7 @@
         <v>450</v>
       </c>
       <c r="Q18" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="R18">
         <v>-11.7</v>
@@ -3833,7 +3860,7 @@
         <v>450</v>
       </c>
       <c r="U18" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="V18">
         <v>67.62</v>
@@ -3845,7 +3872,7 @@
         <v>450</v>
       </c>
       <c r="Y18" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Z18">
         <v>-9.3699999999999992</v>
@@ -3857,7 +3884,7 @@
         <v>450</v>
       </c>
       <c r="AC18" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AD18">
         <v>6.85</v>
@@ -3869,7 +3896,7 @@
         <v>450</v>
       </c>
       <c r="AG18" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AH18">
         <v>2.38</v>
@@ -3881,7 +3908,7 @@
         <v>450</v>
       </c>
       <c r="AK18" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AL18">
         <v>1.32</v>
@@ -3893,7 +3920,7 @@
         <v>438</v>
       </c>
       <c r="AO18" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AP18">
         <v>1.0900000000000001</v>
@@ -3905,7 +3932,7 @@
         <v>438</v>
       </c>
       <c r="AS18" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AT18">
         <v>10.199999999999999</v>
@@ -3917,10 +3944,10 @@
         <v>421</v>
       </c>
       <c r="AW18" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A19" s="1">
         <v>45309</v>
       </c>
@@ -3934,7 +3961,7 @@
         <v>450</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F19">
         <v>91.25</v>
@@ -3946,7 +3973,7 @@
         <v>450</v>
       </c>
       <c r="I19" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J19">
         <v>-1.57</v>
@@ -3958,7 +3985,7 @@
         <v>450</v>
       </c>
       <c r="M19" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="N19">
         <v>30.56</v>
@@ -3970,7 +3997,7 @@
         <v>450</v>
       </c>
       <c r="Q19" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="R19">
         <v>-11.76</v>
@@ -3982,7 +4009,7 @@
         <v>450</v>
       </c>
       <c r="U19" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="V19">
         <v>67.540000000000006</v>
@@ -3994,7 +4021,7 @@
         <v>450</v>
       </c>
       <c r="Y19" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="Z19">
         <v>-9.39</v>
@@ -4006,7 +4033,7 @@
         <v>450</v>
       </c>
       <c r="AC19" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AD19">
         <v>6.88</v>
@@ -4018,7 +4045,7 @@
         <v>450</v>
       </c>
       <c r="AG19" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AH19">
         <v>2.36</v>
@@ -4030,7 +4057,7 @@
         <v>450</v>
       </c>
       <c r="AK19" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AL19">
         <v>1.27</v>
@@ -4042,7 +4069,7 @@
         <v>438</v>
       </c>
       <c r="AO19" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AP19">
         <v>1.1299999999999999</v>
@@ -4054,7 +4081,7 @@
         <v>438</v>
       </c>
       <c r="AS19" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AT19">
         <v>10.199999999999999</v>
@@ -4066,10 +4093,10 @@
         <v>422</v>
       </c>
       <c r="AW19" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A20" s="1">
         <v>45310</v>
       </c>
@@ -4083,7 +4110,7 @@
         <v>450</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F20">
         <v>91.06</v>
@@ -4095,7 +4122,7 @@
         <v>450</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J20">
         <v>-1.78</v>
@@ -4107,7 +4134,7 @@
         <v>450</v>
       </c>
       <c r="M20" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N20">
         <v>30.21</v>
@@ -4119,7 +4146,7 @@
         <v>450</v>
       </c>
       <c r="Q20" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="R20">
         <v>-11.99</v>
@@ -4131,7 +4158,7 @@
         <v>450</v>
       </c>
       <c r="U20" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="V20">
         <v>67.290000000000006</v>
@@ -4143,7 +4170,7 @@
         <v>450</v>
       </c>
       <c r="Y20" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="Z20">
         <v>-9.59</v>
@@ -4155,7 +4182,7 @@
         <v>450</v>
       </c>
       <c r="AC20" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AD20">
         <v>6.99</v>
@@ -4167,7 +4194,7 @@
         <v>450</v>
       </c>
       <c r="AG20" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AH20">
         <v>2.2599999999999998</v>
@@ -4179,7 +4206,7 @@
         <v>450</v>
       </c>
       <c r="AK20" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AL20">
         <v>1.1200000000000001</v>
@@ -4191,7 +4218,7 @@
         <v>437</v>
       </c>
       <c r="AO20" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AP20">
         <v>1.19</v>
@@ -4203,7 +4230,7 @@
         <v>439</v>
       </c>
       <c r="AS20" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AT20">
         <v>10.3</v>
@@ -4215,10 +4242,10 @@
         <v>425</v>
       </c>
       <c r="AW20" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A21" s="1">
         <v>45311</v>
       </c>
@@ -4232,7 +4259,7 @@
         <v>450</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F21">
         <v>90.83</v>
@@ -4244,7 +4271,7 @@
         <v>450</v>
       </c>
       <c r="I21" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J21">
         <v>-1.98</v>
@@ -4256,7 +4283,7 @@
         <v>450</v>
       </c>
       <c r="M21" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="N21">
         <v>30.19</v>
@@ -4268,7 +4295,7 @@
         <v>450</v>
       </c>
       <c r="Q21" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="R21">
         <v>-12.32</v>
@@ -4280,7 +4307,7 @@
         <v>450</v>
       </c>
       <c r="U21" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="V21">
         <v>66.66</v>
@@ -4292,7 +4319,7 @@
         <v>450</v>
       </c>
       <c r="Y21" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="Z21">
         <v>-9.8800000000000008</v>
@@ -4304,7 +4331,7 @@
         <v>450</v>
       </c>
       <c r="AC21" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AD21">
         <v>7.07</v>
@@ -4316,7 +4343,7 @@
         <v>450</v>
       </c>
       <c r="AG21" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AH21">
         <v>2.23</v>
@@ -4328,7 +4355,7 @@
         <v>450</v>
       </c>
       <c r="AK21" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AL21">
         <v>1.08</v>
@@ -4340,7 +4367,7 @@
         <v>438</v>
       </c>
       <c r="AO21" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AP21">
         <v>1.22</v>
@@ -4352,7 +4379,7 @@
         <v>440</v>
       </c>
       <c r="AS21" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AT21">
         <v>10.4</v>
@@ -4364,10 +4391,10 @@
         <v>427</v>
       </c>
       <c r="AW21" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A22" s="1">
         <v>45312</v>
       </c>
@@ -4381,7 +4408,7 @@
         <v>450</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F22">
         <v>90.57</v>
@@ -4393,7 +4420,7 @@
         <v>450</v>
       </c>
       <c r="I22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J22">
         <v>-2.13</v>
@@ -4405,7 +4432,7 @@
         <v>450</v>
       </c>
       <c r="M22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="N22">
         <v>30.04</v>
@@ -4417,7 +4444,7 @@
         <v>450</v>
       </c>
       <c r="Q22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="R22">
         <v>-12.47</v>
@@ -4429,7 +4456,7 @@
         <v>450</v>
       </c>
       <c r="U22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="V22">
         <v>66.48</v>
@@ -4441,7 +4468,7 @@
         <v>450</v>
       </c>
       <c r="Y22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="Z22">
         <v>-10</v>
@@ -4453,7 +4480,7 @@
         <v>450</v>
       </c>
       <c r="AC22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="AD22">
         <v>6.97</v>
@@ -4465,7 +4492,7 @@
         <v>450</v>
       </c>
       <c r="AG22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="AH22">
         <v>2.17</v>
@@ -4477,7 +4504,7 @@
         <v>450</v>
       </c>
       <c r="AK22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="AL22">
         <v>1.1200000000000001</v>
@@ -4489,7 +4516,7 @@
         <v>439</v>
       </c>
       <c r="AO22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="AP22">
         <v>1.22</v>
@@ -4501,7 +4528,7 @@
         <v>441</v>
       </c>
       <c r="AS22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="AT22">
         <v>10.6</v>
@@ -4513,10 +4540,10 @@
         <v>428</v>
       </c>
       <c r="AW22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
         <v>45313</v>
       </c>
@@ -4530,7 +4557,7 @@
         <v>450</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F23">
         <v>90.52</v>
@@ -4542,7 +4569,7 @@
         <v>450</v>
       </c>
       <c r="I23" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J23">
         <v>-2.11</v>
@@ -4554,7 +4581,7 @@
         <v>450</v>
       </c>
       <c r="M23" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="N23">
         <v>30.19</v>
@@ -4566,7 +4593,7 @@
         <v>450</v>
       </c>
       <c r="Q23" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="R23">
         <v>-12.5</v>
@@ -4578,7 +4605,7 @@
         <v>450</v>
       </c>
       <c r="U23" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="V23">
         <v>66.349999999999994</v>
@@ -4590,7 +4617,7 @@
         <v>450</v>
       </c>
       <c r="Y23" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="Z23">
         <v>-10.02</v>
@@ -4602,7 +4629,7 @@
         <v>450</v>
       </c>
       <c r="AC23" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AD23">
         <v>6.96</v>
@@ -4614,7 +4641,7 @@
         <v>450</v>
       </c>
       <c r="AG23" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AH23">
         <v>2.33</v>
@@ -4626,7 +4653,7 @@
         <v>450</v>
       </c>
       <c r="AK23" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AL23">
         <v>1.1399999999999999</v>
@@ -4638,7 +4665,7 @@
         <v>438</v>
       </c>
       <c r="AO23" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AP23">
         <v>1.31</v>
@@ -4650,7 +4677,7 @@
         <v>440</v>
       </c>
       <c r="AS23" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AT23">
         <v>10.8</v>
@@ -4662,10 +4689,10 @@
         <v>428</v>
       </c>
       <c r="AW23" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A24" s="1">
         <v>45314</v>
       </c>
@@ -4679,7 +4706,7 @@
         <v>450</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F24">
         <v>90.43</v>
@@ -4691,7 +4718,7 @@
         <v>450</v>
       </c>
       <c r="I24" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J24">
         <v>-2.08</v>
@@ -4703,7 +4730,7 @@
         <v>450</v>
       </c>
       <c r="M24" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="N24">
         <v>30.19</v>
@@ -4715,7 +4742,7 @@
         <v>450</v>
       </c>
       <c r="Q24" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="R24">
         <v>-12.62</v>
@@ -4727,7 +4754,7 @@
         <v>450</v>
       </c>
       <c r="U24" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="V24">
         <v>66.13</v>
@@ -4739,7 +4766,7 @@
         <v>450</v>
       </c>
       <c r="Y24" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="Z24">
         <v>-10.119999999999999</v>
@@ -4751,7 +4778,7 @@
         <v>450</v>
       </c>
       <c r="AC24" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="AD24">
         <v>6.99</v>
@@ -4763,7 +4790,7 @@
         <v>450</v>
       </c>
       <c r="AG24" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="AH24">
         <v>2.1800000000000002</v>
@@ -4775,7 +4802,7 @@
         <v>450</v>
       </c>
       <c r="AK24" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="AL24">
         <v>1.05</v>
@@ -4787,7 +4814,7 @@
         <v>438</v>
       </c>
       <c r="AO24" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="AP24">
         <v>1.25</v>
@@ -4799,7 +4826,7 @@
         <v>440</v>
       </c>
       <c r="AS24" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="AT24">
         <v>11.1</v>
@@ -4811,10 +4838,10 @@
         <v>428</v>
       </c>
       <c r="AW24" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A25" s="1">
         <v>45315</v>
       </c>
@@ -4828,7 +4855,7 @@
         <v>450</v>
       </c>
       <c r="E25" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F25">
         <v>90.44</v>
@@ -4840,7 +4867,7 @@
         <v>450</v>
       </c>
       <c r="I25" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J25">
         <v>-2.09</v>
@@ -4852,7 +4879,7 @@
         <v>450</v>
       </c>
       <c r="M25" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="N25">
         <v>30.3</v>
@@ -4864,7 +4891,7 @@
         <v>450</v>
       </c>
       <c r="Q25" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="R25">
         <v>-12.58</v>
@@ -4876,7 +4903,7 @@
         <v>450</v>
       </c>
       <c r="U25" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="V25">
         <v>66.150000000000006</v>
@@ -4888,7 +4915,7 @@
         <v>450</v>
       </c>
       <c r="Y25" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="Z25">
         <v>-10.08</v>
@@ -4900,7 +4927,7 @@
         <v>450</v>
       </c>
       <c r="AC25" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AD25">
         <v>6.94</v>
@@ -4912,7 +4939,7 @@
         <v>450</v>
       </c>
       <c r="AG25" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH25">
         <v>2.13</v>
@@ -4924,7 +4951,7 @@
         <v>450</v>
       </c>
       <c r="AK25" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AL25">
         <v>0.98</v>
@@ -4936,7 +4963,7 @@
         <v>438</v>
       </c>
       <c r="AO25" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AP25">
         <v>1.26</v>
@@ -4948,7 +4975,7 @@
         <v>440</v>
       </c>
       <c r="AS25" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AT25">
         <v>11.3</v>
@@ -4960,10 +4987,10 @@
         <v>429</v>
       </c>
       <c r="AW25" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A26" s="1">
         <v>45316</v>
       </c>
@@ -4977,7 +5004,7 @@
         <v>450</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F26">
         <v>90.39</v>
@@ -4989,7 +5016,7 @@
         <v>450</v>
       </c>
       <c r="I26" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J26">
         <v>-2.0299999999999998</v>
@@ -5001,7 +5028,7 @@
         <v>450</v>
       </c>
       <c r="M26" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="N26">
         <v>30.39</v>
@@ -5013,7 +5040,7 @@
         <v>450</v>
       </c>
       <c r="Q26" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="R26">
         <v>-12.49</v>
@@ -5025,7 +5052,7 @@
         <v>450</v>
       </c>
       <c r="U26" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="V26">
         <v>65.930000000000007</v>
@@ -5037,7 +5064,7 @@
         <v>450</v>
       </c>
       <c r="Y26" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="Z26">
         <v>-9.99</v>
@@ -5049,7 +5076,7 @@
         <v>450</v>
       </c>
       <c r="AC26" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="AD26">
         <v>7.11</v>
@@ -5061,7 +5088,7 @@
         <v>450</v>
       </c>
       <c r="AG26" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="AH26">
         <v>2.0699999999999998</v>
@@ -5073,7 +5100,7 @@
         <v>450</v>
       </c>
       <c r="AK26" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="AL26">
         <v>0.9</v>
@@ -5085,7 +5112,7 @@
         <v>439</v>
       </c>
       <c r="AO26" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="AP26">
         <v>1.27</v>
@@ -5097,7 +5124,7 @@
         <v>441</v>
       </c>
       <c r="AS26" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="AT26">
         <v>11.5</v>
@@ -5109,10 +5136,10 @@
         <v>429</v>
       </c>
       <c r="AW26" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A27" s="1">
         <v>45317</v>
       </c>
@@ -5126,7 +5153,7 @@
         <v>450</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F27">
         <v>90.32</v>
@@ -5138,7 +5165,7 @@
         <v>450</v>
       </c>
       <c r="I27" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J27">
         <v>-2.04</v>
@@ -5150,7 +5177,7 @@
         <v>450</v>
       </c>
       <c r="M27" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="N27">
         <v>30.3</v>
@@ -5162,7 +5189,7 @@
         <v>450</v>
       </c>
       <c r="Q27" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="R27">
         <v>-12.53</v>
@@ -5174,7 +5201,7 @@
         <v>450</v>
       </c>
       <c r="U27" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="V27">
         <v>65.8</v>
@@ -5186,7 +5213,7 @@
         <v>450</v>
       </c>
       <c r="Y27" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="Z27">
         <v>-10.06</v>
@@ -5198,7 +5225,7 @@
         <v>450</v>
       </c>
       <c r="AC27" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="AD27">
         <v>6.93</v>
@@ -5210,7 +5237,7 @@
         <v>450</v>
       </c>
       <c r="AG27" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="AH27">
         <v>2.09</v>
@@ -5222,7 +5249,7 @@
         <v>450</v>
       </c>
       <c r="AK27" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="AL27">
         <v>0.88</v>
@@ -5234,7 +5261,7 @@
         <v>440</v>
       </c>
       <c r="AO27" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="AP27">
         <v>1.31</v>
@@ -5246,7 +5273,7 @@
         <v>442</v>
       </c>
       <c r="AS27" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="AT27">
         <v>11.8</v>
@@ -5258,10 +5285,10 @@
         <v>428</v>
       </c>
       <c r="AW27" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A28" s="1">
         <v>45318</v>
       </c>
@@ -5275,7 +5302,7 @@
         <v>450</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F28">
         <v>90.29</v>
@@ -5287,7 +5314,7 @@
         <v>450</v>
       </c>
       <c r="I28" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J28">
         <v>-2.0099999999999998</v>
@@ -5299,7 +5326,7 @@
         <v>450</v>
       </c>
       <c r="M28" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="N28">
         <v>29.88</v>
@@ -5311,7 +5338,7 @@
         <v>450</v>
       </c>
       <c r="Q28" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="R28">
         <v>-12.48</v>
@@ -5323,7 +5350,7 @@
         <v>450</v>
       </c>
       <c r="U28" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="V28">
         <v>65.459999999999994</v>
@@ -5335,7 +5362,7 @@
         <v>450</v>
       </c>
       <c r="Y28" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Z28">
         <v>-10.01</v>
@@ -5347,7 +5374,7 @@
         <v>450</v>
       </c>
       <c r="AC28" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="AD28">
         <v>6.73</v>
@@ -5359,7 +5386,7 @@
         <v>450</v>
       </c>
       <c r="AG28" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="AH28">
         <v>2.11</v>
@@ -5371,7 +5398,7 @@
         <v>450</v>
       </c>
       <c r="AK28" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="AL28">
         <v>0.9</v>
@@ -5383,7 +5410,7 @@
         <v>441</v>
       </c>
       <c r="AO28" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="AP28">
         <v>1.3</v>
@@ -5395,7 +5422,7 @@
         <v>443</v>
       </c>
       <c r="AS28" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="AT28">
         <v>12.1</v>
@@ -5407,10 +5434,10 @@
         <v>428</v>
       </c>
       <c r="AW28" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A29" s="1">
         <v>45319</v>
       </c>
@@ -5424,7 +5451,7 @@
         <v>450</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F29">
         <v>90.43</v>
@@ -5436,7 +5463,7 @@
         <v>450</v>
       </c>
       <c r="I29" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="J29">
         <v>-1.83</v>
@@ -5448,7 +5475,7 @@
         <v>450</v>
       </c>
       <c r="M29" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="N29">
         <v>30.15</v>
@@ -5460,7 +5487,7 @@
         <v>450</v>
       </c>
       <c r="Q29" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="R29">
         <v>-12.36</v>
@@ -5472,7 +5499,7 @@
         <v>450</v>
       </c>
       <c r="U29" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="V29">
         <v>65.510000000000005</v>
@@ -5484,7 +5511,7 @@
         <v>450</v>
       </c>
       <c r="Y29" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="Z29">
         <v>-9.9</v>
@@ -5496,7 +5523,7 @@
         <v>450</v>
       </c>
       <c r="AC29" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="AD29">
         <v>6.75</v>
@@ -5508,7 +5535,7 @@
         <v>450</v>
       </c>
       <c r="AG29" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="AH29">
         <v>2.17</v>
@@ -5520,7 +5547,7 @@
         <v>450</v>
       </c>
       <c r="AK29" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="AL29">
         <v>0.93</v>
@@ -5532,7 +5559,7 @@
         <v>443</v>
       </c>
       <c r="AO29" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="AP29">
         <v>1.33</v>
@@ -5544,7 +5571,7 @@
         <v>445</v>
       </c>
       <c r="AS29" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="AT29">
         <v>12.2</v>
@@ -5556,10 +5583,10 @@
         <v>430</v>
       </c>
       <c r="AW29" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A30" s="1">
         <v>45320</v>
       </c>
@@ -5573,7 +5600,7 @@
         <v>450</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F30">
         <v>90.33</v>
@@ -5585,7 +5612,7 @@
         <v>450</v>
       </c>
       <c r="I30" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J30">
         <v>-1.72</v>
@@ -5597,7 +5624,7 @@
         <v>450</v>
       </c>
       <c r="M30" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="N30">
         <v>30.61</v>
@@ -5609,7 +5636,7 @@
         <v>450</v>
       </c>
       <c r="Q30" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="R30">
         <v>-12.33</v>
@@ -5621,7 +5648,7 @@
         <v>450</v>
       </c>
       <c r="U30" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="V30">
         <v>65.33</v>
@@ -5633,7 +5660,7 @@
         <v>450</v>
       </c>
       <c r="Y30" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="Z30">
         <v>-9.77</v>
@@ -5645,7 +5672,7 @@
         <v>450</v>
       </c>
       <c r="AC30" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AD30">
         <v>7.05</v>
@@ -5657,7 +5684,7 @@
         <v>450</v>
       </c>
       <c r="AG30" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AH30">
         <v>2.21</v>
@@ -5669,7 +5696,7 @@
         <v>450</v>
       </c>
       <c r="AK30" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AL30">
         <v>0.93</v>
@@ -5681,7 +5708,7 @@
         <v>443</v>
       </c>
       <c r="AO30" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AP30">
         <v>1.37</v>
@@ -5693,7 +5720,7 @@
         <v>445</v>
       </c>
       <c r="AS30" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AT30">
         <v>12.4</v>
@@ -5705,10 +5732,10 @@
         <v>431</v>
       </c>
       <c r="AW30" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A31" s="1">
         <v>45321</v>
       </c>
@@ -5722,7 +5749,7 @@
         <v>450</v>
       </c>
       <c r="E31" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F31">
         <v>90.24</v>
@@ -5734,7 +5761,7 @@
         <v>450</v>
       </c>
       <c r="I31" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J31">
         <v>-1.69</v>
@@ -5746,7 +5773,7 @@
         <v>450</v>
       </c>
       <c r="M31" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="N31">
         <v>30.69</v>
@@ -5758,7 +5785,7 @@
         <v>450</v>
       </c>
       <c r="Q31" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="R31">
         <v>-12.32</v>
@@ -5770,7 +5797,7 @@
         <v>450</v>
       </c>
       <c r="U31" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="V31">
         <v>65.14</v>
@@ -5782,7 +5809,7 @@
         <v>450</v>
       </c>
       <c r="Y31" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="Z31">
         <v>-9.76</v>
@@ -5794,7 +5821,7 @@
         <v>450</v>
       </c>
       <c r="AC31" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AD31">
         <v>6.99</v>
@@ -5806,7 +5833,7 @@
         <v>450</v>
       </c>
       <c r="AG31" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AH31">
         <v>2.2000000000000002</v>
@@ -5818,7 +5845,7 @@
         <v>450</v>
       </c>
       <c r="AK31" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AL31">
         <v>0.93</v>
@@ -5830,7 +5857,7 @@
         <v>443</v>
       </c>
       <c r="AO31" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AP31">
         <v>1.36</v>
@@ -5842,7 +5869,7 @@
         <v>445</v>
       </c>
       <c r="AS31" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AT31">
         <v>12.7</v>
@@ -5854,10 +5881,10 @@
         <v>431</v>
       </c>
       <c r="AW31" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A32" s="1">
         <v>45322</v>
       </c>
@@ -5871,7 +5898,7 @@
         <v>450</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F32">
         <v>90.18</v>
@@ -5883,7 +5910,7 @@
         <v>450</v>
       </c>
       <c r="I32" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J32">
         <v>-1.65</v>
@@ -5895,7 +5922,7 @@
         <v>450</v>
       </c>
       <c r="M32" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N32">
         <v>30.6</v>
@@ -5907,7 +5934,7 @@
         <v>450</v>
       </c>
       <c r="Q32" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="R32">
         <v>-12.31</v>
@@ -5919,7 +5946,7 @@
         <v>450</v>
       </c>
       <c r="U32" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="V32">
         <v>64.86</v>
@@ -5931,7 +5958,7 @@
         <v>450</v>
       </c>
       <c r="Y32" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="Z32">
         <v>-9.77</v>
@@ -5943,7 +5970,7 @@
         <v>450</v>
       </c>
       <c r="AC32" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AD32">
         <v>6.91</v>
@@ -5955,7 +5982,7 @@
         <v>450</v>
       </c>
       <c r="AG32" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AH32">
         <v>2.12</v>
@@ -5967,7 +5994,7 @@
         <v>450</v>
       </c>
       <c r="AK32" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AL32">
         <v>0.86</v>
@@ -5979,7 +6006,7 @@
         <v>444</v>
       </c>
       <c r="AO32" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AP32">
         <v>1.34</v>
@@ -5991,7 +6018,7 @@
         <v>446</v>
       </c>
       <c r="AS32" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AT32">
         <v>12.9</v>
@@ -6003,10 +6030,10 @@
         <v>431</v>
       </c>
       <c r="AW32" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A33" s="1">
         <v>45323</v>
       </c>
@@ -6020,7 +6047,7 @@
         <v>450</v>
       </c>
       <c r="E33" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F33">
         <v>90.24</v>
@@ -6032,7 +6059,7 @@
         <v>450</v>
       </c>
       <c r="I33" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J33">
         <v>-1.65</v>
@@ -6044,7 +6071,7 @@
         <v>450</v>
       </c>
       <c r="M33" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="N33">
         <v>30.62</v>
@@ -6056,7 +6083,7 @@
         <v>450</v>
       </c>
       <c r="Q33" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="R33">
         <v>-12.31</v>
@@ -6068,7 +6095,7 @@
         <v>450</v>
       </c>
       <c r="U33" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="V33">
         <v>64.959999999999994</v>
@@ -6080,7 +6107,7 @@
         <v>450</v>
       </c>
       <c r="Y33" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Z33">
         <v>-9.81</v>
@@ -6092,7 +6119,7 @@
         <v>450</v>
       </c>
       <c r="AC33" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AD33">
         <v>7.01</v>
@@ -6104,7 +6131,7 @@
         <v>450</v>
       </c>
       <c r="AG33" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH33">
         <v>2.12</v>
@@ -6116,7 +6143,7 @@
         <v>450</v>
       </c>
       <c r="AK33" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AL33">
         <v>0.79</v>
@@ -6128,7 +6155,7 @@
         <v>445</v>
       </c>
       <c r="AO33" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AP33">
         <v>1.42</v>
@@ -6140,7 +6167,7 @@
         <v>447</v>
       </c>
       <c r="AS33" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AT33">
         <v>13.2</v>
@@ -6152,10 +6179,10 @@
         <v>430</v>
       </c>
       <c r="AW33" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A34" s="1">
         <v>45324</v>
       </c>
@@ -6169,7 +6196,7 @@
         <v>450</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F34">
         <v>90.22</v>
@@ -6181,7 +6208,7 @@
         <v>450</v>
       </c>
       <c r="I34" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J34">
         <v>-1.57</v>
@@ -6193,7 +6220,7 @@
         <v>450</v>
       </c>
       <c r="M34" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="N34">
         <v>30.64</v>
@@ -6205,7 +6232,7 @@
         <v>450</v>
       </c>
       <c r="Q34" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="R34">
         <v>-12.24</v>
@@ -6217,7 +6244,7 @@
         <v>450</v>
       </c>
       <c r="U34" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="V34">
         <v>65.010000000000005</v>
@@ -6229,7 +6256,7 @@
         <v>450</v>
       </c>
       <c r="Y34" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="Z34">
         <v>-9.76</v>
@@ -6241,7 +6268,7 @@
         <v>450</v>
       </c>
       <c r="AC34" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AD34">
         <v>7</v>
@@ -6253,7 +6280,7 @@
         <v>450</v>
       </c>
       <c r="AG34" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH34">
         <v>2.21</v>
@@ -6265,7 +6292,7 @@
         <v>450</v>
       </c>
       <c r="AK34" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AL34">
         <v>0.89</v>
@@ -6277,7 +6304,7 @@
         <v>446</v>
       </c>
       <c r="AO34" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AP34">
         <v>1.41</v>
@@ -6289,7 +6316,7 @@
         <v>448</v>
       </c>
       <c r="AS34" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AT34">
         <v>13.5</v>
@@ -6301,10 +6328,10 @@
         <v>431</v>
       </c>
       <c r="AW34" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A35" s="1">
         <v>45325</v>
       </c>
@@ -6318,7 +6345,7 @@
         <v>450</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F35">
         <v>90.33</v>
@@ -6330,7 +6357,7 @@
         <v>450</v>
       </c>
       <c r="I35" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J35">
         <v>-1.46</v>
@@ -6342,7 +6369,7 @@
         <v>450</v>
       </c>
       <c r="M35" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="N35">
         <v>30.64</v>
@@ -6354,7 +6381,7 @@
         <v>450</v>
       </c>
       <c r="Q35" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="R35">
         <v>-12.19</v>
@@ -6366,7 +6393,7 @@
         <v>450</v>
       </c>
       <c r="U35" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="V35">
         <v>64.959999999999994</v>
@@ -6378,7 +6405,7 @@
         <v>450</v>
       </c>
       <c r="Y35" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="Z35">
         <v>-9.75</v>
@@ -6390,7 +6417,7 @@
         <v>450</v>
       </c>
       <c r="AC35" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AD35">
         <v>6.82</v>
@@ -6402,7 +6429,7 @@
         <v>450</v>
       </c>
       <c r="AG35" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH35">
         <v>2.16</v>
@@ -6414,7 +6441,7 @@
         <v>450</v>
       </c>
       <c r="AK35" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL35">
         <v>0.87</v>
@@ -6426,7 +6453,7 @@
         <v>448</v>
       </c>
       <c r="AO35" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AP35">
         <v>1.37</v>
@@ -6438,7 +6465,7 @@
         <v>448</v>
       </c>
       <c r="AS35" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AT35">
         <v>13.6</v>
@@ -6450,10 +6477,10 @@
         <v>432</v>
       </c>
       <c r="AW35" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A36" s="1">
         <v>45326</v>
       </c>
@@ -6467,7 +6494,7 @@
         <v>450</v>
       </c>
       <c r="E36" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F36">
         <v>90.28</v>
@@ -6479,7 +6506,7 @@
         <v>450</v>
       </c>
       <c r="I36" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="J36">
         <v>-1.5</v>
@@ -6491,7 +6518,7 @@
         <v>450</v>
       </c>
       <c r="M36" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="N36">
         <v>30.64</v>
@@ -6503,7 +6530,7 @@
         <v>450</v>
       </c>
       <c r="Q36" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="R36">
         <v>-12.23</v>
@@ -6515,7 +6542,7 @@
         <v>450</v>
       </c>
       <c r="U36" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="V36">
         <v>64.89</v>
@@ -6527,7 +6554,7 @@
         <v>450</v>
       </c>
       <c r="Y36" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="Z36">
         <v>-9.76</v>
@@ -6539,7 +6566,7 @@
         <v>450</v>
       </c>
       <c r="AC36" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AD36">
         <v>6.84</v>
@@ -6551,7 +6578,7 @@
         <v>450</v>
       </c>
       <c r="AG36" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH36">
         <v>2.13</v>
@@ -6563,7 +6590,7 @@
         <v>450</v>
       </c>
       <c r="AK36" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AL36">
         <v>0.9</v>
@@ -6575,7 +6602,7 @@
         <v>447</v>
       </c>
       <c r="AO36" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AP36">
         <v>1.3</v>
@@ -6587,7 +6614,7 @@
         <v>447</v>
       </c>
       <c r="AS36" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AT36">
         <v>13.8</v>
@@ -6599,10 +6626,10 @@
         <v>433</v>
       </c>
       <c r="AW36" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A37" s="1">
         <v>45327</v>
       </c>
@@ -6616,7 +6643,7 @@
         <v>450</v>
       </c>
       <c r="E37" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F37">
         <v>90.24</v>
@@ -6628,7 +6655,7 @@
         <v>450</v>
       </c>
       <c r="I37" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J37">
         <v>-1.5</v>
@@ -6640,7 +6667,7 @@
         <v>450</v>
       </c>
       <c r="M37" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N37">
         <v>30.9</v>
@@ -6652,7 +6679,7 @@
         <v>450</v>
       </c>
       <c r="Q37" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="R37">
         <v>-12.32</v>
@@ -6664,7 +6691,7 @@
         <v>450</v>
       </c>
       <c r="U37" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="V37">
         <v>64.569999999999993</v>
@@ -6676,7 +6703,7 @@
         <v>450</v>
       </c>
       <c r="Y37" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="Z37">
         <v>-9.82</v>
@@ -6688,7 +6715,7 @@
         <v>450</v>
       </c>
       <c r="AC37" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AD37">
         <v>6.9</v>
@@ -6700,7 +6727,7 @@
         <v>450</v>
       </c>
       <c r="AG37" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH37">
         <v>2.11</v>
@@ -6712,7 +6739,7 @@
         <v>450</v>
       </c>
       <c r="AK37" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AL37">
         <v>0.9</v>
@@ -6724,7 +6751,7 @@
         <v>447</v>
       </c>
       <c r="AO37" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AP37">
         <v>1.28</v>
@@ -6736,7 +6763,7 @@
         <v>447</v>
       </c>
       <c r="AS37" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AT37">
         <v>13.9</v>
@@ -6748,10 +6775,10 @@
         <v>433</v>
       </c>
       <c r="AW37" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A38" s="1">
         <v>45328</v>
       </c>
@@ -6765,7 +6792,7 @@
         <v>450</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F38">
         <v>89.95</v>
@@ -6777,7 +6804,7 @@
         <v>450</v>
       </c>
       <c r="I38" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J38">
         <v>-1.59</v>
@@ -6789,7 +6816,7 @@
         <v>450</v>
       </c>
       <c r="M38" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="N38">
         <v>31.18</v>
@@ -6801,7 +6828,7 @@
         <v>450</v>
       </c>
       <c r="Q38" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="R38">
         <v>-12.45</v>
@@ -6813,7 +6840,7 @@
         <v>450</v>
       </c>
       <c r="U38" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="V38">
         <v>64.25</v>
@@ -6825,7 +6852,7 @@
         <v>450</v>
       </c>
       <c r="Y38" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Z38">
         <v>-9.89</v>
@@ -6837,7 +6864,7 @@
         <v>450</v>
       </c>
       <c r="AC38" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AD38">
         <v>7.09</v>
@@ -6849,7 +6876,7 @@
         <v>450</v>
       </c>
       <c r="AG38" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AH38">
         <v>1.97</v>
@@ -6861,7 +6888,7 @@
         <v>450</v>
       </c>
       <c r="AK38" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AL38">
         <v>0.84</v>
@@ -6873,7 +6900,7 @@
         <v>448</v>
       </c>
       <c r="AO38" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AP38">
         <v>1.25</v>
@@ -6885,7 +6912,7 @@
         <v>448</v>
       </c>
       <c r="AS38" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AT38">
         <v>13.9</v>
@@ -6897,10 +6924,10 @@
         <v>434</v>
       </c>
       <c r="AW38" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A39" s="1">
         <v>45329</v>
       </c>
@@ -6914,7 +6941,7 @@
         <v>450</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F39">
         <v>89.96</v>
@@ -6926,7 +6953,7 @@
         <v>450</v>
       </c>
       <c r="I39" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="J39">
         <v>-1.55</v>
@@ -6938,7 +6965,7 @@
         <v>450</v>
       </c>
       <c r="M39" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="N39">
         <v>31.24</v>
@@ -6950,7 +6977,7 @@
         <v>450</v>
       </c>
       <c r="Q39" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="R39">
         <v>-12.39</v>
@@ -6962,7 +6989,7 @@
         <v>450</v>
       </c>
       <c r="U39" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="V39">
         <v>64.260000000000005</v>
@@ -6974,7 +7001,7 @@
         <v>450</v>
       </c>
       <c r="Y39" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="Z39">
         <v>-9.86</v>
@@ -6986,7 +7013,7 @@
         <v>450</v>
       </c>
       <c r="AC39" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AD39">
         <v>7.12</v>
@@ -6998,7 +7025,7 @@
         <v>450</v>
       </c>
       <c r="AG39" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH39">
         <v>2.0299999999999998</v>
@@ -7010,7 +7037,7 @@
         <v>450</v>
       </c>
       <c r="AK39" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AL39">
         <v>0.82</v>
@@ -7022,7 +7049,7 @@
         <v>448</v>
       </c>
       <c r="AO39" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AP39">
         <v>1.33</v>
@@ -7034,7 +7061,7 @@
         <v>448</v>
       </c>
       <c r="AS39" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AT39">
         <v>14.1</v>
@@ -7046,10 +7073,10 @@
         <v>435</v>
       </c>
       <c r="AW39" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A40" s="1">
         <v>45330</v>
       </c>
@@ -7063,7 +7090,7 @@
         <v>450</v>
       </c>
       <c r="E40" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F40">
         <v>89.73</v>
@@ -7075,7 +7102,7 @@
         <v>450</v>
       </c>
       <c r="I40" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J40">
         <v>-1.46</v>
@@ -7087,7 +7114,7 @@
         <v>450</v>
       </c>
       <c r="M40" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="N40">
         <v>31.2</v>
@@ -7099,7 +7126,7 @@
         <v>450</v>
       </c>
       <c r="Q40" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="R40">
         <v>-12.42</v>
@@ -7111,7 +7138,7 @@
         <v>450</v>
       </c>
       <c r="U40" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="V40">
         <v>63.81</v>
@@ -7123,7 +7150,7 @@
         <v>450</v>
       </c>
       <c r="Y40" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="Z40">
         <v>-9.8000000000000007</v>
@@ -7135,7 +7162,7 @@
         <v>450</v>
       </c>
       <c r="AC40" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AD40">
         <v>7.07</v>
@@ -7147,7 +7174,7 @@
         <v>450</v>
       </c>
       <c r="AG40" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AH40">
         <v>2</v>
@@ -7159,7 +7186,7 @@
         <v>450</v>
       </c>
       <c r="AK40" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AL40">
         <v>0.82</v>
@@ -7171,7 +7198,7 @@
         <v>449</v>
       </c>
       <c r="AO40" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AP40">
         <v>1.3</v>
@@ -7183,7 +7210,7 @@
         <v>449</v>
       </c>
       <c r="AS40" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AT40">
         <v>14.1</v>
@@ -7195,10 +7222,10 @@
         <v>437</v>
       </c>
       <c r="AW40" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A41" s="1">
         <v>45331</v>
       </c>
@@ -7212,7 +7239,7 @@
         <v>450</v>
       </c>
       <c r="E41" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F41">
         <v>89.64</v>
@@ -7224,7 +7251,7 @@
         <v>450</v>
       </c>
       <c r="I41" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="J41">
         <v>-1.47</v>
@@ -7236,7 +7263,7 @@
         <v>450</v>
       </c>
       <c r="M41" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="N41">
         <v>31.03</v>
@@ -7248,7 +7275,7 @@
         <v>450</v>
       </c>
       <c r="Q41" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="R41">
         <v>-12.51</v>
@@ -7260,7 +7287,7 @@
         <v>450</v>
       </c>
       <c r="U41" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="V41">
         <v>63.65</v>
@@ -7272,7 +7299,7 @@
         <v>450</v>
       </c>
       <c r="Y41" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="Z41">
         <v>-9.89</v>
@@ -7284,7 +7311,7 @@
         <v>450</v>
       </c>
       <c r="AC41" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AD41">
         <v>6.9</v>
@@ -7296,7 +7323,7 @@
         <v>450</v>
       </c>
       <c r="AG41" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AH41">
         <v>2.0099999999999998</v>
@@ -7308,7 +7335,7 @@
         <v>450</v>
       </c>
       <c r="AK41" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AL41">
         <v>0.86</v>
@@ -7320,7 +7347,7 @@
         <v>449</v>
       </c>
       <c r="AO41" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AP41">
         <v>1.27</v>
@@ -7332,7 +7359,7 @@
         <v>449</v>
       </c>
       <c r="AS41" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AT41">
         <v>14.1</v>
@@ -7344,10 +7371,10 @@
         <v>438</v>
       </c>
       <c r="AW41" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A42" s="1">
         <v>45332</v>
       </c>
@@ -7361,7 +7388,7 @@
         <v>450</v>
       </c>
       <c r="E42" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F42">
         <v>89.7</v>
@@ -7373,7 +7400,7 @@
         <v>450</v>
       </c>
       <c r="I42" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="J42">
         <v>-1.4</v>
@@ -7385,7 +7412,7 @@
         <v>450</v>
       </c>
       <c r="M42" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="N42">
         <v>31.08</v>
@@ -7397,7 +7424,7 @@
         <v>450</v>
       </c>
       <c r="Q42" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="R42">
         <v>-12.56</v>
@@ -7409,7 +7436,7 @@
         <v>450</v>
       </c>
       <c r="U42" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="V42">
         <v>63.36</v>
@@ -7421,7 +7448,7 @@
         <v>450</v>
       </c>
       <c r="Y42" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="Z42">
         <v>-9.93</v>
@@ -7433,7 +7460,7 @@
         <v>450</v>
       </c>
       <c r="AC42" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="AD42">
         <v>6.9</v>
@@ -7445,7 +7472,7 @@
         <v>450</v>
       </c>
       <c r="AG42" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="AH42">
         <v>2.08</v>
@@ -7457,7 +7484,7 @@
         <v>450</v>
       </c>
       <c r="AK42" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="AL42">
         <v>0.98</v>
@@ -7469,7 +7496,7 @@
         <v>449</v>
       </c>
       <c r="AO42" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="AP42">
         <v>1.21</v>
@@ -7481,7 +7508,7 @@
         <v>449</v>
       </c>
       <c r="AS42" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="AT42">
         <v>14.1</v>
@@ -7493,10 +7520,10 @@
         <v>440</v>
       </c>
       <c r="AW42" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A43" s="1">
         <v>45333</v>
       </c>
@@ -7510,7 +7537,7 @@
         <v>450</v>
       </c>
       <c r="E43" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F43">
         <v>89.68</v>
@@ -7522,7 +7549,7 @@
         <v>450</v>
       </c>
       <c r="I43" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="J43">
         <v>-1.34</v>
@@ -7534,7 +7561,7 @@
         <v>450</v>
       </c>
       <c r="M43" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N43">
         <v>31.57</v>
@@ -7546,7 +7573,7 @@
         <v>450</v>
       </c>
       <c r="Q43" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="R43">
         <v>-12.59</v>
@@ -7558,7 +7585,7 @@
         <v>450</v>
       </c>
       <c r="U43" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="V43">
         <v>63.05</v>
@@ -7570,7 +7597,7 @@
         <v>450</v>
       </c>
       <c r="Y43" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="Z43">
         <v>-9.92</v>
@@ -7582,7 +7609,7 @@
         <v>450</v>
       </c>
       <c r="AC43" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="AD43">
         <v>7</v>
@@ -7594,7 +7621,7 @@
         <v>450</v>
       </c>
       <c r="AG43" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="AH43">
         <v>2.06</v>
@@ -7606,7 +7633,7 @@
         <v>450</v>
       </c>
       <c r="AK43" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="AL43">
         <v>0.93</v>
@@ -7618,7 +7645,7 @@
         <v>448</v>
       </c>
       <c r="AO43" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="AP43">
         <v>1.24</v>
@@ -7630,7 +7657,7 @@
         <v>449</v>
       </c>
       <c r="AS43" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="AT43">
         <v>14</v>
@@ -7642,10 +7669,10 @@
         <v>441</v>
       </c>
       <c r="AW43" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A44" s="1">
         <v>45334</v>
       </c>
@@ -7659,7 +7686,7 @@
         <v>450</v>
       </c>
       <c r="E44" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F44">
         <v>89.46</v>
@@ -7671,7 +7698,7 @@
         <v>450</v>
       </c>
       <c r="I44" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J44">
         <v>-1.1399999999999999</v>
@@ -7683,7 +7710,7 @@
         <v>450</v>
       </c>
       <c r="M44" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="N44">
         <v>31.59</v>
@@ -7695,7 +7722,7 @@
         <v>450</v>
       </c>
       <c r="Q44" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="R44">
         <v>-12.45</v>
@@ -7707,7 +7734,7 @@
         <v>450</v>
       </c>
       <c r="U44" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="V44">
         <v>62.88</v>
@@ -7719,7 +7746,7 @@
         <v>450</v>
       </c>
       <c r="Y44" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Z44">
         <v>-9.74</v>
@@ -7731,7 +7758,7 @@
         <v>450</v>
       </c>
       <c r="AC44" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AD44">
         <v>7.11</v>
@@ -7743,7 +7770,7 @@
         <v>450</v>
       </c>
       <c r="AG44" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AH44">
         <v>1.97</v>
@@ -7755,7 +7782,7 @@
         <v>450</v>
       </c>
       <c r="AK44" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AL44">
         <v>0.89</v>
@@ -7767,7 +7794,7 @@
         <v>448</v>
       </c>
       <c r="AO44" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AP44">
         <v>1.19</v>
@@ -7779,7 +7806,7 @@
         <v>449</v>
       </c>
       <c r="AS44" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AT44">
         <v>13.9</v>
@@ -7791,10 +7818,10 @@
         <v>441</v>
       </c>
       <c r="AW44" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A45" s="1">
         <v>45335</v>
       </c>
@@ -7808,7 +7835,7 @@
         <v>450</v>
       </c>
       <c r="E45" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F45">
         <v>89.68</v>
@@ -7820,7 +7847,7 @@
         <v>450</v>
       </c>
       <c r="I45" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J45">
         <v>-0.88</v>
@@ -7832,7 +7859,7 @@
         <v>450</v>
       </c>
       <c r="M45" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="N45">
         <v>31.33</v>
@@ -7844,7 +7871,7 @@
         <v>450</v>
       </c>
       <c r="Q45" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="R45">
         <v>-12.08</v>
@@ -7856,7 +7883,7 @@
         <v>450</v>
       </c>
       <c r="U45" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="V45">
         <v>63.08</v>
@@ -7868,7 +7895,7 @@
         <v>450</v>
       </c>
       <c r="Y45" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Z45">
         <v>-9.4700000000000006</v>
@@ -7880,7 +7907,7 @@
         <v>450</v>
       </c>
       <c r="AC45" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="AD45">
         <v>6.98</v>
@@ -7892,7 +7919,7 @@
         <v>450</v>
       </c>
       <c r="AG45" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="AH45">
         <v>2.06</v>
@@ -7904,7 +7931,7 @@
         <v>450</v>
       </c>
       <c r="AK45" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="AL45">
         <v>0.99</v>
@@ -7916,7 +7943,7 @@
         <v>448</v>
       </c>
       <c r="AO45" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="AP45">
         <v>1.17</v>
@@ -7928,7 +7955,7 @@
         <v>449</v>
       </c>
       <c r="AS45" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="AT45">
         <v>13.7</v>
@@ -7940,10 +7967,10 @@
         <v>440</v>
       </c>
       <c r="AW45" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A46" s="1">
         <v>45336</v>
       </c>
@@ -7957,7 +7984,7 @@
         <v>450</v>
       </c>
       <c r="E46" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F46">
         <v>89.91</v>
@@ -7969,7 +7996,7 @@
         <v>450</v>
       </c>
       <c r="I46" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J46">
         <v>-0.6</v>
@@ -7981,7 +8008,7 @@
         <v>450</v>
       </c>
       <c r="M46" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="N46">
         <v>31.27</v>
@@ -7993,7 +8020,7 @@
         <v>450</v>
       </c>
       <c r="Q46" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="R46">
         <v>-11.91</v>
@@ -8005,7 +8032,7 @@
         <v>450</v>
       </c>
       <c r="U46" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="V46">
         <v>62.87</v>
@@ -8017,7 +8044,7 @@
         <v>450</v>
       </c>
       <c r="Y46" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="Z46">
         <v>-9.3000000000000007</v>
@@ -8029,7 +8056,7 @@
         <v>450</v>
       </c>
       <c r="AC46" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AD46">
         <v>6.84</v>
@@ -8041,7 +8068,7 @@
         <v>450</v>
       </c>
       <c r="AG46" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AH46">
         <v>2.04</v>
@@ -8053,7 +8080,7 @@
         <v>450</v>
       </c>
       <c r="AK46" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AL46">
         <v>0.97</v>
@@ -8065,7 +8092,7 @@
         <v>447</v>
       </c>
       <c r="AO46" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AP46">
         <v>1.1499999999999999</v>
@@ -8077,7 +8104,7 @@
         <v>448</v>
       </c>
       <c r="AS46" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AT46">
         <v>13.4</v>
@@ -8089,10 +8116,10 @@
         <v>439</v>
       </c>
       <c r="AW46" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A47" s="1">
         <v>45337</v>
       </c>
@@ -8106,7 +8133,7 @@
         <v>450</v>
       </c>
       <c r="E47" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F47">
         <v>89.82</v>
@@ -8118,7 +8145,7 @@
         <v>450</v>
       </c>
       <c r="I47" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J47">
         <v>-0.48</v>
@@ -8130,7 +8157,7 @@
         <v>450</v>
       </c>
       <c r="M47" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="N47">
         <v>31.26</v>
@@ -8142,7 +8169,7 @@
         <v>450</v>
       </c>
       <c r="Q47" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="R47">
         <v>-11.79</v>
@@ -8154,7 +8181,7 @@
         <v>450</v>
       </c>
       <c r="U47" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="V47">
         <v>62.96</v>
@@ -8166,7 +8193,7 @@
         <v>450</v>
       </c>
       <c r="Y47" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="Z47">
         <v>-9.11</v>
@@ -8178,7 +8205,7 @@
         <v>450</v>
       </c>
       <c r="AC47" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AD47">
         <v>6.97</v>
@@ -8190,7 +8217,7 @@
         <v>450</v>
       </c>
       <c r="AG47" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AH47">
         <v>2.16</v>
@@ -8202,7 +8229,7 @@
         <v>450</v>
       </c>
       <c r="AK47" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AL47">
         <v>1.04</v>
@@ -8214,7 +8241,7 @@
         <v>447</v>
       </c>
       <c r="AO47" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AP47">
         <v>1.2</v>
@@ -8226,7 +8253,7 @@
         <v>448</v>
       </c>
       <c r="AS47" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AT47">
         <v>13.1</v>
@@ -8238,10 +8265,10 @@
         <v>439</v>
       </c>
       <c r="AW47" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A48" s="1">
         <v>45338</v>
       </c>
@@ -8255,7 +8282,7 @@
         <v>450</v>
       </c>
       <c r="E48" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F48">
         <v>89.73</v>
@@ -8267,7 +8294,7 @@
         <v>450</v>
       </c>
       <c r="I48" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="J48">
         <v>-0.27</v>
@@ -8279,7 +8306,7 @@
         <v>450</v>
       </c>
       <c r="M48" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N48">
         <v>31.34</v>
@@ -8291,7 +8318,7 @@
         <v>450</v>
       </c>
       <c r="Q48" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="R48">
         <v>-11.56</v>
@@ -8303,7 +8330,7 @@
         <v>450</v>
       </c>
       <c r="U48" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="V48">
         <v>62.88</v>
@@ -8315,7 +8342,7 @@
         <v>450</v>
       </c>
       <c r="Y48" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="Z48">
         <v>-8.8800000000000008</v>
@@ -8327,7 +8354,7 @@
         <v>450</v>
       </c>
       <c r="AC48" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AD48">
         <v>6.86</v>
@@ -8339,7 +8366,7 @@
         <v>450</v>
       </c>
       <c r="AG48" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AH48">
         <v>2.09</v>
@@ -8351,7 +8378,7 @@
         <v>450</v>
       </c>
       <c r="AK48" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AL48">
         <v>1.01</v>
@@ -8363,7 +8390,7 @@
         <v>447</v>
       </c>
       <c r="AO48" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AP48">
         <v>1.1399999999999999</v>
@@ -8375,7 +8402,7 @@
         <v>448</v>
       </c>
       <c r="AS48" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AT48">
         <v>12.8</v>
@@ -8387,10 +8414,10 @@
         <v>438</v>
       </c>
       <c r="AW48" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A49" s="1">
         <v>45339</v>
       </c>
@@ -8404,7 +8431,7 @@
         <v>450</v>
       </c>
       <c r="E49" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F49">
         <v>89.65</v>
@@ -8416,7 +8443,7 @@
         <v>450</v>
       </c>
       <c r="I49" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="J49">
         <v>-0.13</v>
@@ -8428,7 +8455,7 @@
         <v>450</v>
       </c>
       <c r="M49" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N49">
         <v>31.44</v>
@@ -8440,7 +8467,7 @@
         <v>450</v>
       </c>
       <c r="Q49" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="R49">
         <v>-11.5</v>
@@ -8452,7 +8479,7 @@
         <v>450</v>
       </c>
       <c r="U49" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="V49">
         <v>62.56</v>
@@ -8464,7 +8491,7 @@
         <v>450</v>
       </c>
       <c r="Y49" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="Z49">
         <v>-8.77</v>
@@ -8476,7 +8503,7 @@
         <v>450</v>
       </c>
       <c r="AC49" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="AD49">
         <v>6.9</v>
@@ -8488,7 +8515,7 @@
         <v>450</v>
       </c>
       <c r="AG49" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="AH49">
         <v>2.1</v>
@@ -8500,7 +8527,7 @@
         <v>450</v>
       </c>
       <c r="AK49" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="AL49">
         <v>1.05</v>
@@ -8512,7 +8539,7 @@
         <v>447</v>
       </c>
       <c r="AO49" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="AP49">
         <v>1.1000000000000001</v>
@@ -8524,7 +8551,7 @@
         <v>448</v>
       </c>
       <c r="AS49" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="AT49">
         <v>12.4</v>
@@ -8536,10 +8563,10 @@
         <v>438</v>
       </c>
       <c r="AW49" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A50" s="1">
         <v>45340</v>
       </c>
@@ -8553,7 +8580,7 @@
         <v>450</v>
       </c>
       <c r="E50" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F50">
         <v>89.54</v>
@@ -8565,7 +8592,7 @@
         <v>450</v>
       </c>
       <c r="I50" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="J50">
         <v>0.01</v>
@@ -8577,7 +8604,7 @@
         <v>450</v>
       </c>
       <c r="M50" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="N50">
         <v>31.71</v>
@@ -8589,7 +8616,7 @@
         <v>450</v>
       </c>
       <c r="Q50" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="R50">
         <v>-11.4</v>
@@ -8601,7 +8628,7 @@
         <v>450</v>
       </c>
       <c r="U50" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="V50">
         <v>62.29</v>
@@ -8613,7 +8640,7 @@
         <v>450</v>
       </c>
       <c r="Y50" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="Z50">
         <v>-8.64</v>
@@ -8625,7 +8652,7 @@
         <v>450</v>
       </c>
       <c r="AC50" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="AD50">
         <v>6.85</v>
@@ -8637,7 +8664,7 @@
         <v>450</v>
       </c>
       <c r="AG50" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="AH50">
         <v>2.16</v>
@@ -8649,7 +8676,7 @@
         <v>450</v>
       </c>
       <c r="AK50" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="AL50">
         <v>1.1299999999999999</v>
@@ -8661,7 +8688,7 @@
         <v>447</v>
       </c>
       <c r="AO50" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="AP50">
         <v>1.0900000000000001</v>
@@ -8673,7 +8700,7 @@
         <v>448</v>
       </c>
       <c r="AS50" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="AT50">
         <v>12</v>
@@ -8685,10 +8712,10 @@
         <v>438</v>
       </c>
       <c r="AW50" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A51" s="1">
         <v>45341</v>
       </c>
@@ -8702,7 +8729,7 @@
         <v>450</v>
       </c>
       <c r="E51" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F51">
         <v>89.51</v>
@@ -8714,7 +8741,7 @@
         <v>450</v>
       </c>
       <c r="I51" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="J51">
         <v>0.12</v>
@@ -8726,7 +8753,7 @@
         <v>450</v>
       </c>
       <c r="M51" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="N51">
         <v>31.5</v>
@@ -8738,7 +8765,7 @@
         <v>450</v>
       </c>
       <c r="Q51" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="R51">
         <v>-11.27</v>
@@ -8750,7 +8777,7 @@
         <v>450</v>
       </c>
       <c r="U51" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="V51">
         <v>61.97</v>
@@ -8762,7 +8789,7 @@
         <v>450</v>
       </c>
       <c r="Y51" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="Z51">
         <v>-8.49</v>
@@ -8774,7 +8801,7 @@
         <v>450</v>
       </c>
       <c r="AC51" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="AD51">
         <v>6.8</v>
@@ -8786,7 +8813,7 @@
         <v>450</v>
       </c>
       <c r="AG51" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="AH51">
         <v>2.2400000000000002</v>
@@ -8798,7 +8825,7 @@
         <v>450</v>
       </c>
       <c r="AK51" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="AL51">
         <v>1.1000000000000001</v>
@@ -8810,7 +8837,7 @@
         <v>446</v>
       </c>
       <c r="AO51" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="AP51">
         <v>1.17</v>
@@ -8822,7 +8849,7 @@
         <v>448</v>
       </c>
       <c r="AS51" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="AT51">
         <v>11.5</v>
@@ -8834,10 +8861,10 @@
         <v>438</v>
       </c>
       <c r="AW51" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A52" s="1">
         <v>45342</v>
       </c>
@@ -8851,7 +8878,7 @@
         <v>450</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F52">
         <v>89.6</v>
@@ -8863,7 +8890,7 @@
         <v>450</v>
       </c>
       <c r="I52" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="J52">
         <v>0.28999999999999998</v>
@@ -8875,7 +8902,7 @@
         <v>450</v>
       </c>
       <c r="M52" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="N52">
         <v>31.57</v>
@@ -8887,7 +8914,7 @@
         <v>450</v>
       </c>
       <c r="Q52" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="R52">
         <v>-11.06</v>
@@ -8899,7 +8926,7 @@
         <v>450</v>
       </c>
       <c r="U52" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="V52">
         <v>62.08</v>
@@ -8911,7 +8938,7 @@
         <v>450</v>
       </c>
       <c r="Y52" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="Z52">
         <v>-8.31</v>
@@ -8923,7 +8950,7 @@
         <v>450</v>
       </c>
       <c r="AC52" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="AD52">
         <v>6.63</v>
@@ -8935,7 +8962,7 @@
         <v>450</v>
       </c>
       <c r="AG52" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="AH52">
         <v>2.29</v>
@@ -8947,7 +8974,7 @@
         <v>450</v>
       </c>
       <c r="AK52" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="AL52">
         <v>1.1200000000000001</v>
@@ -8959,7 +8986,7 @@
         <v>446</v>
       </c>
       <c r="AO52" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="AP52">
         <v>1.2</v>
@@ -8971,7 +8998,7 @@
         <v>448</v>
       </c>
       <c r="AS52" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="AT52">
         <v>11.3</v>
@@ -8983,10 +9010,10 @@
         <v>437</v>
       </c>
       <c r="AW52" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A53" s="1">
         <v>45343</v>
       </c>
@@ -9000,7 +9027,7 @@
         <v>450</v>
       </c>
       <c r="E53" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F53">
         <v>89.71</v>
@@ -9012,7 +9039,7 @@
         <v>450</v>
       </c>
       <c r="I53" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J53">
         <v>0.54</v>
@@ -9024,7 +9051,7 @@
         <v>450</v>
       </c>
       <c r="M53" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="N53">
         <v>31.22</v>
@@ -9036,7 +9063,7 @@
         <v>450</v>
       </c>
       <c r="Q53" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="R53">
         <v>-10.78</v>
@@ -9048,7 +9075,7 @@
         <v>450</v>
       </c>
       <c r="U53" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="V53">
         <v>62.02</v>
@@ -9060,7 +9087,7 @@
         <v>450</v>
       </c>
       <c r="Y53" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="Z53">
         <v>-8.0500000000000007</v>
@@ -9072,7 +9099,7 @@
         <v>450</v>
       </c>
       <c r="AC53" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="AD53">
         <v>6.47</v>
@@ -9084,7 +9111,7 @@
         <v>450</v>
       </c>
       <c r="AG53" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="AH53">
         <v>2.2799999999999998</v>
@@ -9096,7 +9123,7 @@
         <v>450</v>
       </c>
       <c r="AK53" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="AL53">
         <v>1.19</v>
@@ -9108,7 +9135,7 @@
         <v>446</v>
       </c>
       <c r="AO53" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="AP53">
         <v>1.1000000000000001</v>
@@ -9120,7 +9147,7 @@
         <v>448</v>
       </c>
       <c r="AS53" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="AT53">
         <v>11</v>
@@ -9132,10 +9159,10 @@
         <v>436</v>
       </c>
       <c r="AW53" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.5">
       <c r="A54" s="1">
         <v>45344</v>
       </c>
@@ -9149,7 +9176,7 @@
         <v>450</v>
       </c>
       <c r="E54" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F54">
         <v>89.86</v>
@@ -9161,7 +9188,7 @@
         <v>450</v>
       </c>
       <c r="I54" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J54">
         <v>0.8</v>
@@ -9173,7 +9200,7 @@
         <v>450</v>
       </c>
       <c r="M54" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="N54">
         <v>31.27</v>
@@ -9185,7 +9212,7 @@
         <v>450</v>
       </c>
       <c r="Q54" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="R54">
         <v>-10.59</v>
@@ -9197,7 +9224,7 @@
         <v>450</v>
       </c>
       <c r="U54" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="V54">
         <v>62.01</v>
@@ -9209,7 +9236,7 @@
         <v>450</v>
       </c>
       <c r="Y54" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="Z54">
         <v>-7.81</v>
@@ -9221,7 +9248,7 @@
         <v>450</v>
       </c>
       <c r="AC54" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="AD54">
         <v>6.41</v>
@@ -9233,7 +9260,7 @@
         <v>450</v>
       </c>
       <c r="AG54" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="AH54">
         <v>2.34</v>
@@ -9245,7 +9272,7 @@
         <v>450</v>
       </c>
       <c r="AK54" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="AL54">
         <v>1.26</v>
@@ -9257,7 +9284,7 @@
         <v>445</v>
       </c>
       <c r="AO54" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="AP54">
         <v>1.1000000000000001</v>
@@ -9269,7 +9296,7 @@
         <v>447</v>
       </c>
       <c r="AS54" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="AT54">
         <v>10.6</v>
@@ -9281,12 +9308,1204 @@
         <v>434</v>
       </c>
       <c r="AW54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:49" x14ac:dyDescent="0.5">
+      <c r="A55" s="1">
+        <v>45345</v>
+      </c>
+      <c r="B55">
+        <v>-3.21</v>
+      </c>
+      <c r="C55">
+        <v>6.29</v>
+      </c>
+      <c r="D55">
+        <v>450</v>
+      </c>
+      <c r="E55" t="s">
+        <v>59</v>
+      </c>
+      <c r="F55">
+        <v>89.94</v>
+      </c>
+      <c r="G55">
+        <v>8.6</v>
+      </c>
+      <c r="H55">
+        <v>450</v>
+      </c>
+      <c r="I55" t="s">
+        <v>59</v>
+      </c>
+      <c r="J55">
+        <v>0.91</v>
+      </c>
+      <c r="K55">
+        <v>5.85</v>
+      </c>
+      <c r="L55">
+        <v>450</v>
+      </c>
+      <c r="M55" t="s">
+        <v>59</v>
+      </c>
+      <c r="N55">
+        <v>31.35</v>
+      </c>
+      <c r="O55">
+        <v>11.32</v>
+      </c>
+      <c r="P55">
+        <v>450</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>59</v>
+      </c>
+      <c r="R55">
+        <v>-10.42</v>
+      </c>
+      <c r="S55">
+        <v>6.71</v>
+      </c>
+      <c r="T55">
+        <v>450</v>
+      </c>
+      <c r="U55" t="s">
+        <v>59</v>
+      </c>
+      <c r="V55">
+        <v>61.92</v>
+      </c>
+      <c r="W55">
+        <v>13.63</v>
+      </c>
+      <c r="X55">
+        <v>450</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z55">
+        <v>-7.69</v>
+      </c>
+      <c r="AA55">
+        <v>6.12</v>
+      </c>
+      <c r="AB55">
+        <v>450</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD55">
+        <v>6.38</v>
+      </c>
+      <c r="AE55">
+        <v>5.48</v>
+      </c>
+      <c r="AF55">
+        <v>450</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH55">
+        <v>2.4</v>
+      </c>
+      <c r="AI55">
+        <v>5.21</v>
+      </c>
+      <c r="AJ55">
+        <v>450</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL55">
+        <v>1.29</v>
+      </c>
+      <c r="AM55">
+        <v>4.29</v>
+      </c>
+      <c r="AN55">
+        <v>445</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP55">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AQ55">
+        <v>2.6</v>
+      </c>
+      <c r="AR55">
+        <v>447</v>
+      </c>
+      <c r="AS55" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT55">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AU55">
+        <v>12.94</v>
+      </c>
+      <c r="AV55">
+        <v>434</v>
+      </c>
+      <c r="AW55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:49" x14ac:dyDescent="0.5">
+      <c r="A56" s="1">
+        <v>45346</v>
+      </c>
+      <c r="B56">
+        <v>-3.2</v>
+      </c>
+      <c r="C56">
+        <v>6.31</v>
+      </c>
+      <c r="D56">
+        <v>450</v>
+      </c>
+      <c r="E56" t="s">
+        <v>58</v>
+      </c>
+      <c r="F56">
+        <v>89.86</v>
+      </c>
+      <c r="G56">
+        <v>8.59</v>
+      </c>
+      <c r="H56">
+        <v>450</v>
+      </c>
+      <c r="I56" t="s">
+        <v>58</v>
+      </c>
+      <c r="J56">
+        <v>0.95</v>
+      </c>
+      <c r="K56">
+        <v>5.82</v>
+      </c>
+      <c r="L56">
+        <v>450</v>
+      </c>
+      <c r="M56" t="s">
+        <v>58</v>
+      </c>
+      <c r="N56">
+        <v>31.5</v>
+      </c>
+      <c r="O56">
+        <v>11.43</v>
+      </c>
+      <c r="P56">
+        <v>450</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>58</v>
+      </c>
+      <c r="R56">
+        <v>-10.37</v>
+      </c>
+      <c r="S56">
+        <v>6.68</v>
+      </c>
+      <c r="T56">
+        <v>450</v>
+      </c>
+      <c r="U56" t="s">
+        <v>58</v>
+      </c>
+      <c r="V56">
+        <v>61.74</v>
+      </c>
+      <c r="W56">
+        <v>13.77</v>
+      </c>
+      <c r="X56">
+        <v>450</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z56">
+        <v>-7.6</v>
+      </c>
+      <c r="AA56">
+        <v>6.08</v>
+      </c>
+      <c r="AB56">
+        <v>450</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD56">
+        <v>6.37</v>
+      </c>
+      <c r="AE56">
+        <v>5.52</v>
+      </c>
+      <c r="AF56">
+        <v>450</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH56">
+        <v>2.42</v>
+      </c>
+      <c r="AI56">
+        <v>5.24</v>
+      </c>
+      <c r="AJ56">
+        <v>450</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL56">
+        <v>1.31</v>
+      </c>
+      <c r="AM56">
+        <v>4.29</v>
+      </c>
+      <c r="AN56">
+        <v>445</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP56">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AQ56">
+        <v>2.63</v>
+      </c>
+      <c r="AR56">
+        <v>447</v>
+      </c>
+      <c r="AS56" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT56">
+        <v>9.9</v>
+      </c>
+      <c r="AU56">
+        <v>12.52</v>
+      </c>
+      <c r="AV56">
+        <v>434</v>
+      </c>
+      <c r="AW56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:49" x14ac:dyDescent="0.5">
+      <c r="A57" s="1">
+        <v>45347</v>
+      </c>
+      <c r="B57">
+        <v>-3.22</v>
+      </c>
+      <c r="C57">
+        <v>6.29</v>
+      </c>
+      <c r="D57">
+        <v>450</v>
+      </c>
+      <c r="E57" t="s">
+        <v>57</v>
+      </c>
+      <c r="F57">
+        <v>89.71</v>
+      </c>
+      <c r="G57">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="H57">
+        <v>450</v>
+      </c>
+      <c r="I57" t="s">
+        <v>57</v>
+      </c>
+      <c r="J57">
+        <v>1.01</v>
+      </c>
+      <c r="K57">
+        <v>5.79</v>
+      </c>
+      <c r="L57">
+        <v>450</v>
+      </c>
+      <c r="M57" t="s">
+        <v>57</v>
+      </c>
+      <c r="N57">
+        <v>31.42</v>
+      </c>
+      <c r="O57">
+        <v>11.55</v>
+      </c>
+      <c r="P57">
+        <v>450</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>57</v>
+      </c>
+      <c r="R57">
+        <v>-10.27</v>
+      </c>
+      <c r="S57">
+        <v>6.66</v>
+      </c>
+      <c r="T57">
+        <v>450</v>
+      </c>
+      <c r="U57" t="s">
+        <v>57</v>
+      </c>
+      <c r="V57">
+        <v>61.38</v>
+      </c>
+      <c r="W57">
+        <v>13.93</v>
+      </c>
+      <c r="X57">
+        <v>450</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z57">
+        <v>-7.45</v>
+      </c>
+      <c r="AA57">
+        <v>6.05</v>
+      </c>
+      <c r="AB57">
+        <v>450</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD57">
+        <v>6.42</v>
+      </c>
+      <c r="AE57">
+        <v>5.58</v>
+      </c>
+      <c r="AF57">
+        <v>450</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH57">
+        <v>2.27</v>
+      </c>
+      <c r="AI57">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="AJ57">
+        <v>450</v>
+      </c>
+      <c r="AK57" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL57">
+        <v>1.17</v>
+      </c>
+      <c r="AM57">
+        <v>3.88</v>
+      </c>
+      <c r="AN57">
+        <v>445</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP57">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AQ57">
+        <v>2.61</v>
+      </c>
+      <c r="AR57">
+        <v>447</v>
+      </c>
+      <c r="AS57" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT57">
+        <v>9.6</v>
+      </c>
+      <c r="AU57">
+        <v>12.15</v>
+      </c>
+      <c r="AV57">
+        <v>433</v>
+      </c>
+      <c r="AW57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:49" x14ac:dyDescent="0.5">
+      <c r="A58" s="1">
+        <v>45348</v>
+      </c>
+      <c r="B58">
+        <v>-3.22</v>
+      </c>
+      <c r="C58">
+        <v>6.24</v>
+      </c>
+      <c r="D58">
+        <v>450</v>
+      </c>
+      <c r="E58" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58">
+        <v>89.65</v>
+      </c>
+      <c r="G58">
+        <v>8.74</v>
+      </c>
+      <c r="H58">
+        <v>450</v>
+      </c>
+      <c r="I58" t="s">
+        <v>56</v>
+      </c>
+      <c r="J58">
+        <v>1.07</v>
+      </c>
+      <c r="K58">
+        <v>5.7</v>
+      </c>
+      <c r="L58">
+        <v>450</v>
+      </c>
+      <c r="M58" t="s">
+        <v>56</v>
+      </c>
+      <c r="N58">
+        <v>31.14</v>
+      </c>
+      <c r="O58">
+        <v>11.36</v>
+      </c>
+      <c r="P58">
+        <v>450</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>56</v>
+      </c>
+      <c r="R58">
+        <v>-10.24</v>
+      </c>
+      <c r="S58">
+        <v>6.65</v>
+      </c>
+      <c r="T58">
+        <v>450</v>
+      </c>
+      <c r="U58" t="s">
+        <v>56</v>
+      </c>
+      <c r="V58">
+        <v>61.27</v>
+      </c>
+      <c r="W58">
+        <v>14.07</v>
+      </c>
+      <c r="X58">
+        <v>450</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z58">
+        <v>-7.44</v>
+      </c>
+      <c r="AA58">
+        <v>6</v>
+      </c>
+      <c r="AB58">
+        <v>450</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD58">
+        <v>6.27</v>
+      </c>
+      <c r="AE58">
+        <v>5.37</v>
+      </c>
+      <c r="AF58">
+        <v>450</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH58">
+        <v>2.31</v>
+      </c>
+      <c r="AI58">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="AJ58">
+        <v>450</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL58">
+        <v>1.21</v>
+      </c>
+      <c r="AM58">
+        <v>3.98</v>
+      </c>
+      <c r="AN58">
+        <v>446</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP58">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AQ58">
+        <v>2.6</v>
+      </c>
+      <c r="AR58">
+        <v>447</v>
+      </c>
+      <c r="AS58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT58">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AU58">
+        <v>11.82</v>
+      </c>
+      <c r="AV58">
+        <v>433</v>
+      </c>
+      <c r="AW58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:49" x14ac:dyDescent="0.5">
+      <c r="A59" s="1">
+        <v>45349</v>
+      </c>
+      <c r="B59">
+        <v>-3.22</v>
+      </c>
+      <c r="C59">
+        <v>6.31</v>
+      </c>
+      <c r="D59">
+        <v>450</v>
+      </c>
+      <c r="E59" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59">
+        <v>89.91</v>
+      </c>
+      <c r="G59">
+        <v>8.61</v>
+      </c>
+      <c r="H59">
+        <v>450</v>
+      </c>
+      <c r="I59" t="s">
+        <v>55</v>
+      </c>
+      <c r="J59">
+        <v>1.06</v>
+      </c>
+      <c r="K59">
+        <v>5.78</v>
+      </c>
+      <c r="L59">
+        <v>450</v>
+      </c>
+      <c r="M59" t="s">
+        <v>55</v>
+      </c>
+      <c r="N59">
+        <v>31.17</v>
+      </c>
+      <c r="O59">
+        <v>11.59</v>
+      </c>
+      <c r="P59">
+        <v>450</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>55</v>
+      </c>
+      <c r="R59">
+        <v>-10.14</v>
+      </c>
+      <c r="S59">
+        <v>6.67</v>
+      </c>
+      <c r="T59">
+        <v>450</v>
+      </c>
+      <c r="U59" t="s">
+        <v>55</v>
+      </c>
+      <c r="V59">
+        <v>61.29</v>
+      </c>
+      <c r="W59">
+        <v>14.22</v>
+      </c>
+      <c r="X59">
+        <v>450</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z59">
+        <v>-7.39</v>
+      </c>
+      <c r="AA59">
+        <v>6</v>
+      </c>
+      <c r="AB59">
+        <v>450</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD59">
+        <v>6.16</v>
+      </c>
+      <c r="AE59">
+        <v>5.36</v>
+      </c>
+      <c r="AF59">
+        <v>450</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH59">
+        <v>2.44</v>
+      </c>
+      <c r="AI59">
+        <v>5.15</v>
+      </c>
+      <c r="AJ59">
+        <v>450</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL59">
+        <v>1.19</v>
+      </c>
+      <c r="AM59">
+        <v>3.97</v>
+      </c>
+      <c r="AN59">
+        <v>446</v>
+      </c>
+      <c r="AO59" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP59">
+        <v>1.28</v>
+      </c>
+      <c r="AQ59">
+        <v>3.07</v>
+      </c>
+      <c r="AR59">
+        <v>447</v>
+      </c>
+      <c r="AS59" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT59">
+        <v>9.1</v>
+      </c>
+      <c r="AU59">
+        <v>11.46</v>
+      </c>
+      <c r="AV59">
+        <v>432</v>
+      </c>
+      <c r="AW59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:49" x14ac:dyDescent="0.5">
+      <c r="A60" s="1">
+        <v>45350</v>
+      </c>
+      <c r="B60">
+        <v>-3.21</v>
+      </c>
+      <c r="C60">
+        <v>6.22</v>
+      </c>
+      <c r="D60">
+        <v>450</v>
+      </c>
+      <c r="E60" t="s">
+        <v>54</v>
+      </c>
+      <c r="F60">
+        <v>89.92</v>
+      </c>
+      <c r="G60">
+        <v>8.68</v>
+      </c>
+      <c r="H60">
+        <v>450</v>
+      </c>
+      <c r="I60" t="s">
+        <v>54</v>
+      </c>
+      <c r="J60">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K60">
+        <v>5.71</v>
+      </c>
+      <c r="L60">
+        <v>450</v>
+      </c>
+      <c r="M60" t="s">
+        <v>54</v>
+      </c>
+      <c r="N60">
+        <v>31.08</v>
+      </c>
+      <c r="O60">
+        <v>11.52</v>
+      </c>
+      <c r="P60">
+        <v>450</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>54</v>
+      </c>
+      <c r="R60">
+        <v>-10.210000000000001</v>
+      </c>
+      <c r="S60">
+        <v>6.56</v>
+      </c>
+      <c r="T60">
+        <v>450</v>
+      </c>
+      <c r="U60" t="s">
+        <v>54</v>
+      </c>
+      <c r="V60">
+        <v>61.07</v>
+      </c>
+      <c r="W60">
+        <v>14.21</v>
+      </c>
+      <c r="X60">
+        <v>450</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z60">
+        <v>-7.42</v>
+      </c>
+      <c r="AA60">
+        <v>5.92</v>
+      </c>
+      <c r="AB60">
+        <v>450</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD60">
+        <v>6.09</v>
+      </c>
+      <c r="AE60">
+        <v>5.37</v>
+      </c>
+      <c r="AF60">
+        <v>450</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH60">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="AI60">
+        <v>5.36</v>
+      </c>
+      <c r="AJ60">
+        <v>450</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL60">
+        <v>1.23</v>
+      </c>
+      <c r="AM60">
+        <v>4.3</v>
+      </c>
+      <c r="AN60">
+        <v>446</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP60">
+        <v>1.27</v>
+      </c>
+      <c r="AQ60">
+        <v>3</v>
+      </c>
+      <c r="AR60">
+        <v>447</v>
+      </c>
+      <c r="AS60" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT60">
+        <v>9</v>
+      </c>
+      <c r="AU60">
+        <v>11.27</v>
+      </c>
+      <c r="AV60">
+        <v>432</v>
+      </c>
+      <c r="AW60" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:49" x14ac:dyDescent="0.5">
+      <c r="A61" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B61">
+        <v>-3.28</v>
+      </c>
+      <c r="C61">
+        <v>6.19</v>
+      </c>
+      <c r="D61">
+        <v>450</v>
+      </c>
+      <c r="E61" t="s">
+        <v>53</v>
+      </c>
+      <c r="F61">
+        <v>89.66</v>
+      </c>
+      <c r="G61">
+        <v>8.74</v>
+      </c>
+      <c r="H61">
+        <v>450</v>
+      </c>
+      <c r="I61" t="s">
+        <v>53</v>
+      </c>
+      <c r="J61">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K61">
+        <v>5.82</v>
+      </c>
+      <c r="L61">
+        <v>450</v>
+      </c>
+      <c r="M61" t="s">
+        <v>53</v>
+      </c>
+      <c r="N61">
+        <v>31.03</v>
+      </c>
+      <c r="O61">
+        <v>11.75</v>
+      </c>
+      <c r="P61">
+        <v>450</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>53</v>
+      </c>
+      <c r="R61">
+        <v>-10.23</v>
+      </c>
+      <c r="S61">
+        <v>6.52</v>
+      </c>
+      <c r="T61">
+        <v>450</v>
+      </c>
+      <c r="U61" t="s">
+        <v>53</v>
+      </c>
+      <c r="V61">
+        <v>60.64</v>
+      </c>
+      <c r="W61">
+        <v>14.18</v>
+      </c>
+      <c r="X61">
+        <v>450</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z61">
+        <v>-7.39</v>
+      </c>
+      <c r="AA61">
+        <v>5.94</v>
+      </c>
+      <c r="AB61">
+        <v>450</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD61">
+        <v>6.07</v>
+      </c>
+      <c r="AE61">
+        <v>5.36</v>
+      </c>
+      <c r="AF61">
+        <v>450</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH61">
+        <v>2.48</v>
+      </c>
+      <c r="AI61">
+        <v>5.41</v>
+      </c>
+      <c r="AJ61">
+        <v>450</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL61">
+        <v>1.28</v>
+      </c>
+      <c r="AM61">
+        <v>4.41</v>
+      </c>
+      <c r="AN61">
+        <v>447</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP61">
+        <v>1.26</v>
+      </c>
+      <c r="AQ61">
+        <v>2.99</v>
+      </c>
+      <c r="AR61">
+        <v>448</v>
+      </c>
+      <c r="AS61" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT61">
+        <v>9.1</v>
+      </c>
+      <c r="AU61">
+        <v>11.26</v>
+      </c>
+      <c r="AV61">
+        <v>431</v>
+      </c>
+      <c r="AW61" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:49" x14ac:dyDescent="0.5">
+      <c r="A62" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B62">
+        <v>-3.23</v>
+      </c>
+      <c r="C62">
+        <v>6.33</v>
+      </c>
+      <c r="D62">
+        <v>450</v>
+      </c>
+      <c r="E62" t="s">
+        <v>53</v>
+      </c>
+      <c r="F62">
+        <v>89.74</v>
+      </c>
+      <c r="G62">
+        <v>8.66</v>
+      </c>
+      <c r="H62">
+        <v>450</v>
+      </c>
+      <c r="I62" t="s">
+        <v>53</v>
+      </c>
+      <c r="J62">
+        <v>1.22</v>
+      </c>
+      <c r="K62">
+        <v>6.03</v>
+      </c>
+      <c r="L62">
+        <v>450</v>
+      </c>
+      <c r="M62" t="s">
+        <v>53</v>
+      </c>
+      <c r="N62">
+        <v>31.16</v>
+      </c>
+      <c r="O62">
+        <v>11.78</v>
+      </c>
+      <c r="P62">
+        <v>450</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>53</v>
+      </c>
+      <c r="R62">
+        <v>-10.220000000000001</v>
+      </c>
+      <c r="S62">
+        <v>6.6</v>
+      </c>
+      <c r="T62">
+        <v>450</v>
+      </c>
+      <c r="U62" t="s">
+        <v>53</v>
+      </c>
+      <c r="V62">
+        <v>60.54</v>
+      </c>
+      <c r="W62">
+        <v>14.2</v>
+      </c>
+      <c r="X62">
+        <v>450</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z62">
+        <v>-7.4</v>
+      </c>
+      <c r="AA62">
+        <v>6.01</v>
+      </c>
+      <c r="AB62">
+        <v>450</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD62">
+        <v>6.12</v>
+      </c>
+      <c r="AE62">
+        <v>5.39</v>
+      </c>
+      <c r="AF62">
+        <v>450</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH62">
+        <v>2.54</v>
+      </c>
+      <c r="AI62">
+        <v>5.48</v>
+      </c>
+      <c r="AJ62">
+        <v>450</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL62">
+        <v>1.3</v>
+      </c>
+      <c r="AM62">
+        <v>4.43</v>
+      </c>
+      <c r="AN62">
+        <v>447</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP62">
+        <v>1.3</v>
+      </c>
+      <c r="AQ62">
+        <v>3.14</v>
+      </c>
+      <c r="AR62">
+        <v>448</v>
+      </c>
+      <c r="AS62" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT62">
+        <v>9</v>
+      </c>
+      <c r="AU62">
+        <v>11.21</v>
+      </c>
+      <c r="AV62">
+        <v>431</v>
+      </c>
+      <c r="AW62" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BA54">
-    <sortCondition ref="A2:A54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BA62">
+    <sortCondition ref="A2:A62"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
